--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CF155E-5945-4CE5-ACD0-FE0424F09FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69AC936-16CE-4FEF-8FE5-B538A37A57B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3630" windowWidth="20220" windowHeight="9615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27195" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -20,11 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$383</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -51,16 +46,11 @@
       </text>
     </comment>
   </commentList>
-  <extLst>
-    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi0kJwqxYzkuof6af93gdUocvbSMg=="/>
-    </ext>
-  </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="385">
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
   </si>
@@ -129,12 +119,6 @@
   </si>
   <si>
     <t>LAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
   </si>
   <si>
     <t>OK</t>
@@ -2065,20 +2049,49 @@
     <t>CDA</t>
   </si>
   <si>
-    <t>Pubblicazione TEST 0</t>
-  </si>
-  <si>
     <t>NOME FORNITORE: TS23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT0_OK</t>
+  </si>
+  <si>
+    <t>2024-05-13T18:02:21Z</t>
+  </si>
+  <si>
+    <t>bc2ad7e437c07d5a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.2316f47ba1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-27T09:27:33Z</t>
+  </si>
+  <si>
+    <t>b3775053c74d5727</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.883b8fafb4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2105,6 +2118,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2305,7 +2324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2362,6 +2381,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -2380,10 +2409,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2438,7 +2466,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="2">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -2683,7 +2711,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:B5"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2721,12 +2749,12 @@
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="25"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2744,14 +2772,14 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="D3" s="21"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="25"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2769,12 +2797,12 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="21"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" s="25"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2793,12 +2821,12 @@
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="D5" s="21"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="D5" s="25"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2816,8 +2844,8 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="7"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2939,22 +2967,32 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
+        <v>377</v>
+      </c>
+      <c r="F10" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -2965,20 +3003,40 @@
       <c r="R10" s="17"/>
       <c r="S10" s="18"/>
       <c r="T10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -2989,7 +3047,7 @@
       <c r="R11" s="17"/>
       <c r="S11" s="18"/>
       <c r="T11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.25" customHeight="1">
@@ -3013,7 +3071,7 @@
       <c r="R12" s="17"/>
       <c r="S12" s="18"/>
       <c r="T12" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
@@ -3037,7 +3095,7 @@
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
       <c r="T13" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
@@ -3061,7 +3119,7 @@
       <c r="R14" s="17"/>
       <c r="S14" s="18"/>
       <c r="T14" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="14.25" customHeight="1">
@@ -3085,7 +3143,7 @@
       <c r="R15" s="17"/>
       <c r="S15" s="18"/>
       <c r="T15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="14.25" customHeight="1">
@@ -3109,7 +3167,7 @@
       <c r="R16" s="17"/>
       <c r="S16" s="18"/>
       <c r="T16" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.25" customHeight="1">
@@ -3133,7 +3191,7 @@
       <c r="R17" s="17"/>
       <c r="S17" s="18"/>
       <c r="T17" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="14.25" customHeight="1">
@@ -3157,7 +3215,7 @@
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
       <c r="T18" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="14.25" customHeight="1">
@@ -3181,7 +3239,7 @@
       <c r="R19" s="17"/>
       <c r="S19" s="18"/>
       <c r="T19" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="14.25" customHeight="1">
@@ -3205,7 +3263,7 @@
       <c r="R20" s="17"/>
       <c r="S20" s="18"/>
       <c r="T20" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.25" customHeight="1">
@@ -3229,7 +3287,7 @@
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
       <c r="T21" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.25" customHeight="1">
@@ -3253,7 +3311,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
       <c r="T22" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="14.25" customHeight="1">
@@ -3277,7 +3335,7 @@
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
       <c r="T23" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="14.25" customHeight="1">
@@ -3301,7 +3359,7 @@
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
       <c r="T24" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="14.25" customHeight="1">
@@ -3325,7 +3383,7 @@
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
       <c r="T25" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="14.25" customHeight="1">
@@ -3349,7 +3407,7 @@
       <c r="R26" s="17"/>
       <c r="S26" s="18"/>
       <c r="T26" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="14.25" customHeight="1">
@@ -3373,7 +3431,7 @@
       <c r="R27" s="17"/>
       <c r="S27" s="18"/>
       <c r="T27" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="14.25" customHeight="1">
@@ -3397,7 +3455,7 @@
       <c r="R28" s="17"/>
       <c r="S28" s="18"/>
       <c r="T28" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="14.25" customHeight="1">
@@ -3421,7 +3479,7 @@
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
       <c r="T29" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.25" customHeight="1">
@@ -3445,7 +3503,7 @@
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
       <c r="T30" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1">
@@ -3469,7 +3527,7 @@
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
       <c r="T31" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1">
@@ -3493,7 +3551,7 @@
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
       <c r="T32" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="14.25" customHeight="1">
@@ -3517,7 +3575,7 @@
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
       <c r="T33" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="14.25" customHeight="1">
@@ -3541,7 +3599,7 @@
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
       <c r="T34" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="14.25" customHeight="1">
@@ -3565,7 +3623,7 @@
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
       <c r="T35" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="14.25" customHeight="1">
@@ -3589,7 +3647,7 @@
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
       <c r="T36" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="14.25" customHeight="1">
@@ -3613,7 +3671,7 @@
       <c r="R37" s="17"/>
       <c r="S37" s="18"/>
       <c r="T37" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="14.25" customHeight="1">
@@ -3637,7 +3695,7 @@
       <c r="R38" s="17"/>
       <c r="S38" s="18"/>
       <c r="T38" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="14.25" customHeight="1">
@@ -3661,7 +3719,7 @@
       <c r="R39" s="17"/>
       <c r="S39" s="18"/>
       <c r="T39" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="14.25" customHeight="1">
@@ -3685,7 +3743,7 @@
       <c r="R40" s="17"/>
       <c r="S40" s="18"/>
       <c r="T40" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="14.25" customHeight="1">
@@ -3709,7 +3767,7 @@
       <c r="R41" s="17"/>
       <c r="S41" s="18"/>
       <c r="T41" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="14.25" customHeight="1">
@@ -3733,7 +3791,7 @@
       <c r="R42" s="17"/>
       <c r="S42" s="18"/>
       <c r="T42" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="14.25" customHeight="1">
@@ -3757,7 +3815,7 @@
       <c r="R43" s="17"/>
       <c r="S43" s="18"/>
       <c r="T43" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="14.25" customHeight="1">
@@ -3781,7 +3839,7 @@
       <c r="R44" s="17"/>
       <c r="S44" s="18"/>
       <c r="T44" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="14.25" customHeight="1">
@@ -3805,7 +3863,7 @@
       <c r="R45" s="17"/>
       <c r="S45" s="18"/>
       <c r="T45" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="14.25" customHeight="1">
@@ -3829,7 +3887,7 @@
       <c r="R46" s="17"/>
       <c r="S46" s="18"/>
       <c r="T46" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="14.25" customHeight="1">
@@ -3853,7 +3911,7 @@
       <c r="R47" s="17"/>
       <c r="S47" s="18"/>
       <c r="T47" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="14.25" customHeight="1">
@@ -3877,7 +3935,7 @@
       <c r="R48" s="17"/>
       <c r="S48" s="18"/>
       <c r="T48" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="14.25" customHeight="1">
@@ -3901,7 +3959,7 @@
       <c r="R49" s="17"/>
       <c r="S49" s="18"/>
       <c r="T49" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="14.25" customHeight="1">
@@ -3925,7 +3983,7 @@
       <c r="R50" s="17"/>
       <c r="S50" s="18"/>
       <c r="T50" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="14.25" customHeight="1">
@@ -3947,11 +4005,11 @@
       <c r="P51" s="16"/>
       <c r="Q51" s="16"/>
       <c r="R51" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S51" s="18"/>
       <c r="T51" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="14.25" customHeight="1">
@@ -3973,11 +4031,11 @@
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
       <c r="R52" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S52" s="18"/>
       <c r="T52" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="14.25" customHeight="1">
@@ -3999,11 +4057,11 @@
       <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S53" s="18"/>
       <c r="T53" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="14.25" customHeight="1">
@@ -4025,11 +4083,11 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S54" s="18"/>
       <c r="T54" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="14.25" customHeight="1">
@@ -4051,11 +4109,11 @@
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
       <c r="R55" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S55" s="18"/>
       <c r="T55" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="14.25" customHeight="1">
@@ -4077,11 +4135,11 @@
       <c r="P56" s="16"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S56" s="18"/>
       <c r="T56" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="14.25" customHeight="1">
@@ -4103,11 +4161,11 @@
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S57" s="18"/>
       <c r="T57" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.25" customHeight="1">
@@ -4129,11 +4187,11 @@
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S58" s="18"/>
       <c r="T58" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.25" customHeight="1">
@@ -4157,7 +4215,7 @@
       <c r="R59" s="17"/>
       <c r="S59" s="18"/>
       <c r="T59" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="14.25" customHeight="1">
@@ -4181,7 +4239,7 @@
       <c r="R60" s="17"/>
       <c r="S60" s="18"/>
       <c r="T60" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="14.25" customHeight="1">
@@ -4205,7 +4263,7 @@
       <c r="R61" s="17"/>
       <c r="S61" s="18"/>
       <c r="T61" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="14.25" customHeight="1">
@@ -4229,7 +4287,7 @@
       <c r="R62" s="17"/>
       <c r="S62" s="18"/>
       <c r="T62" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="14.25" customHeight="1">
@@ -4253,7 +4311,7 @@
       <c r="R63" s="17"/>
       <c r="S63" s="18"/>
       <c r="T63" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="14.25" customHeight="1">
@@ -4277,7 +4335,7 @@
       <c r="R64" s="17"/>
       <c r="S64" s="18"/>
       <c r="T64" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="14.25" customHeight="1">
@@ -4301,7 +4359,7 @@
       <c r="R65" s="17"/>
       <c r="S65" s="18"/>
       <c r="T65" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="14.25" customHeight="1">
@@ -4325,7 +4383,7 @@
       <c r="R66" s="17"/>
       <c r="S66" s="18"/>
       <c r="T66" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="14.25" customHeight="1">
@@ -4349,7 +4407,7 @@
       <c r="R67" s="17"/>
       <c r="S67" s="18"/>
       <c r="T67" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="14.25" customHeight="1">
@@ -4373,7 +4431,7 @@
       <c r="R68" s="17"/>
       <c r="S68" s="18"/>
       <c r="T68" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="14.25" customHeight="1">
@@ -4397,7 +4455,7 @@
       <c r="R69" s="17"/>
       <c r="S69" s="18"/>
       <c r="T69" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="14.25" customHeight="1">
@@ -4421,7 +4479,7 @@
       <c r="R70" s="17"/>
       <c r="S70" s="18"/>
       <c r="T70" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="14.25" customHeight="1">
@@ -4445,7 +4503,7 @@
       <c r="R71" s="17"/>
       <c r="S71" s="18"/>
       <c r="T71" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="14.25" customHeight="1">
@@ -4469,7 +4527,7 @@
       <c r="R72" s="17"/>
       <c r="S72" s="18"/>
       <c r="T72" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="14.25" customHeight="1">
@@ -4493,7 +4551,7 @@
       <c r="R73" s="17"/>
       <c r="S73" s="18"/>
       <c r="T73" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="14.25" customHeight="1">
@@ -4517,7 +4575,7 @@
       <c r="R74" s="17"/>
       <c r="S74" s="18"/>
       <c r="T74" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="14.25" customHeight="1">
@@ -4541,7 +4599,7 @@
       <c r="R75" s="17"/>
       <c r="S75" s="18"/>
       <c r="T75" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="14.25" customHeight="1">
@@ -4565,7 +4623,7 @@
       <c r="R76" s="17"/>
       <c r="S76" s="18"/>
       <c r="T76" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="14.25" customHeight="1">
@@ -4589,7 +4647,7 @@
       <c r="R77" s="17"/>
       <c r="S77" s="18"/>
       <c r="T77" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="14.25" customHeight="1">
@@ -4613,7 +4671,7 @@
       <c r="R78" s="17"/>
       <c r="S78" s="18"/>
       <c r="T78" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="14.25" customHeight="1">
@@ -4637,7 +4695,7 @@
       <c r="R79" s="17"/>
       <c r="S79" s="18"/>
       <c r="T79" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="14.25" customHeight="1">
@@ -4661,7 +4719,7 @@
       <c r="R80" s="17"/>
       <c r="S80" s="18"/>
       <c r="T80" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="14.25" customHeight="1">
@@ -4685,7 +4743,7 @@
       <c r="R81" s="17"/>
       <c r="S81" s="18"/>
       <c r="T81" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="14.25" customHeight="1">
@@ -4709,7 +4767,7 @@
       <c r="R82" s="17"/>
       <c r="S82" s="18"/>
       <c r="T82" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="14.25" customHeight="1">
@@ -4733,7 +4791,7 @@
       <c r="R83" s="17"/>
       <c r="S83" s="18"/>
       <c r="T83" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="14.25" customHeight="1">
@@ -4757,7 +4815,7 @@
       <c r="R84" s="17"/>
       <c r="S84" s="18"/>
       <c r="T84" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="14.25" customHeight="1">
@@ -4781,7 +4839,7 @@
       <c r="R85" s="17"/>
       <c r="S85" s="18"/>
       <c r="T85" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="14.25" customHeight="1">
@@ -4805,7 +4863,7 @@
       <c r="R86" s="17"/>
       <c r="S86" s="18"/>
       <c r="T86" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="14.25" customHeight="1">
@@ -4829,7 +4887,7 @@
       <c r="R87" s="17"/>
       <c r="S87" s="18"/>
       <c r="T87" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="14.25" customHeight="1">
@@ -4853,7 +4911,7 @@
       <c r="R88" s="17"/>
       <c r="S88" s="18"/>
       <c r="T88" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="14.25" customHeight="1">
@@ -4877,7 +4935,7 @@
       <c r="R89" s="17"/>
       <c r="S89" s="18"/>
       <c r="T89" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="14.25" customHeight="1">
@@ -4901,7 +4959,7 @@
       <c r="R90" s="17"/>
       <c r="S90" s="18"/>
       <c r="T90" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="14.25" customHeight="1">
@@ -4925,7 +4983,7 @@
       <c r="R91" s="17"/>
       <c r="S91" s="18"/>
       <c r="T91" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="14.25" customHeight="1">
@@ -4949,7 +5007,7 @@
       <c r="R92" s="17"/>
       <c r="S92" s="18"/>
       <c r="T92" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="14.25" customHeight="1">
@@ -4973,7 +5031,7 @@
       <c r="R93" s="17"/>
       <c r="S93" s="18"/>
       <c r="T93" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="14.25" customHeight="1">
@@ -4997,7 +5055,7 @@
       <c r="R94" s="17"/>
       <c r="S94" s="18"/>
       <c r="T94" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="14.25" customHeight="1">
@@ -5021,7 +5079,7 @@
       <c r="R95" s="17"/>
       <c r="S95" s="18"/>
       <c r="T95" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="14.25" customHeight="1">
@@ -5045,7 +5103,7 @@
       <c r="R96" s="17"/>
       <c r="S96" s="18"/>
       <c r="T96" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="14.25" customHeight="1">
@@ -5069,7 +5127,7 @@
       <c r="R97" s="17"/>
       <c r="S97" s="18"/>
       <c r="T97" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="14.25" customHeight="1">
@@ -5093,7 +5151,7 @@
       <c r="R98" s="17"/>
       <c r="S98" s="18"/>
       <c r="T98" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="14.25" customHeight="1">
@@ -5117,7 +5175,7 @@
       <c r="R99" s="17"/>
       <c r="S99" s="18"/>
       <c r="T99" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="14.25" customHeight="1">
@@ -5141,7 +5199,7 @@
       <c r="R100" s="17"/>
       <c r="S100" s="18"/>
       <c r="T100" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="14.25" customHeight="1">
@@ -5165,7 +5223,7 @@
       <c r="R101" s="17"/>
       <c r="S101" s="18"/>
       <c r="T101" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="14.25" customHeight="1">
@@ -5189,7 +5247,7 @@
       <c r="R102" s="17"/>
       <c r="S102" s="18"/>
       <c r="T102" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="14.25" customHeight="1">
@@ -5213,7 +5271,7 @@
       <c r="R103" s="17"/>
       <c r="S103" s="18"/>
       <c r="T103" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="14.25" customHeight="1">
@@ -5237,7 +5295,7 @@
       <c r="R104" s="17"/>
       <c r="S104" s="18"/>
       <c r="T104" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="14.25" customHeight="1">
@@ -5261,7 +5319,7 @@
       <c r="R105" s="17"/>
       <c r="S105" s="18"/>
       <c r="T105" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="14.25" customHeight="1">
@@ -5285,7 +5343,7 @@
       <c r="R106" s="17"/>
       <c r="S106" s="18"/>
       <c r="T106" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="14.25" customHeight="1">
@@ -5309,7 +5367,7 @@
       <c r="R107" s="17"/>
       <c r="S107" s="18"/>
       <c r="T107" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="14.25" customHeight="1">
@@ -5333,7 +5391,7 @@
       <c r="R108" s="17"/>
       <c r="S108" s="18"/>
       <c r="T108" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="14.25" customHeight="1">
@@ -5357,7 +5415,7 @@
       <c r="R109" s="17"/>
       <c r="S109" s="18"/>
       <c r="T109" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="14.25" customHeight="1">
@@ -5381,7 +5439,7 @@
       <c r="R110" s="17"/>
       <c r="S110" s="18"/>
       <c r="T110" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="14.25" customHeight="1">
@@ -5405,7 +5463,7 @@
       <c r="R111" s="17"/>
       <c r="S111" s="18"/>
       <c r="T111" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="14.25" customHeight="1">
@@ -5429,7 +5487,7 @@
       <c r="R112" s="17"/>
       <c r="S112" s="18"/>
       <c r="T112" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="14.25" customHeight="1">
@@ -5453,7 +5511,7 @@
       <c r="R113" s="17"/>
       <c r="S113" s="18"/>
       <c r="T113" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="14.25" customHeight="1">
@@ -5477,7 +5535,7 @@
       <c r="R114" s="17"/>
       <c r="S114" s="18"/>
       <c r="T114" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="14.25" customHeight="1">
@@ -5501,7 +5559,7 @@
       <c r="R115" s="17"/>
       <c r="S115" s="18"/>
       <c r="T115" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="14.25" customHeight="1">
@@ -5525,7 +5583,7 @@
       <c r="R116" s="17"/>
       <c r="S116" s="18"/>
       <c r="T116" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="14.25" customHeight="1">
@@ -5549,7 +5607,7 @@
       <c r="R117" s="17"/>
       <c r="S117" s="18"/>
       <c r="T117" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="14.25" customHeight="1">
@@ -5573,7 +5631,7 @@
       <c r="R118" s="17"/>
       <c r="S118" s="18"/>
       <c r="T118" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="14.25" customHeight="1">
@@ -5597,7 +5655,7 @@
       <c r="R119" s="17"/>
       <c r="S119" s="18"/>
       <c r="T119" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="14.25" customHeight="1">
@@ -5621,7 +5679,7 @@
       <c r="R120" s="17"/>
       <c r="S120" s="18"/>
       <c r="T120" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="14.25" customHeight="1">
@@ -5645,7 +5703,7 @@
       <c r="R121" s="17"/>
       <c r="S121" s="18"/>
       <c r="T121" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="14.25" customHeight="1">
@@ -5669,7 +5727,7 @@
       <c r="R122" s="17"/>
       <c r="S122" s="18"/>
       <c r="T122" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="14.25" customHeight="1">
@@ -5693,7 +5751,7 @@
       <c r="R123" s="17"/>
       <c r="S123" s="18"/>
       <c r="T123" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="14.25" customHeight="1">
@@ -5717,7 +5775,7 @@
       <c r="R124" s="17"/>
       <c r="S124" s="18"/>
       <c r="T124" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="14.25" customHeight="1">
@@ -5741,7 +5799,7 @@
       <c r="R125" s="17"/>
       <c r="S125" s="18"/>
       <c r="T125" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="14.25" customHeight="1">
@@ -5765,7 +5823,7 @@
       <c r="R126" s="17"/>
       <c r="S126" s="18"/>
       <c r="T126" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="14.25" customHeight="1">
@@ -5789,7 +5847,7 @@
       <c r="R127" s="17"/>
       <c r="S127" s="18"/>
       <c r="T127" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="14.25" customHeight="1">
@@ -5813,7 +5871,7 @@
       <c r="R128" s="17"/>
       <c r="S128" s="18"/>
       <c r="T128" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="14.25" customHeight="1">
@@ -5837,7 +5895,7 @@
       <c r="R129" s="17"/>
       <c r="S129" s="18"/>
       <c r="T129" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="14.25" customHeight="1">
@@ -5861,7 +5919,7 @@
       <c r="R130" s="17"/>
       <c r="S130" s="18"/>
       <c r="T130" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="14.25" customHeight="1">
@@ -5885,7 +5943,7 @@
       <c r="R131" s="17"/>
       <c r="S131" s="18"/>
       <c r="T131" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="14.25" customHeight="1">
@@ -5909,7 +5967,7 @@
       <c r="R132" s="17"/>
       <c r="S132" s="18"/>
       <c r="T132" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="14.25" customHeight="1">
@@ -5933,7 +5991,7 @@
       <c r="R133" s="17"/>
       <c r="S133" s="18"/>
       <c r="T133" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="14.25" customHeight="1">
@@ -5957,7 +6015,7 @@
       <c r="R134" s="17"/>
       <c r="S134" s="18"/>
       <c r="T134" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="14.25" customHeight="1">
@@ -5981,7 +6039,7 @@
       <c r="R135" s="17"/>
       <c r="S135" s="18"/>
       <c r="T135" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="14.25" customHeight="1">
@@ -6005,7 +6063,7 @@
       <c r="R136" s="17"/>
       <c r="S136" s="18"/>
       <c r="T136" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:20" ht="14.25" customHeight="1">
@@ -6029,7 +6087,7 @@
       <c r="R137" s="17"/>
       <c r="S137" s="18"/>
       <c r="T137" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:20" ht="14.25" customHeight="1">
@@ -6053,7 +6111,7 @@
       <c r="R138" s="17"/>
       <c r="S138" s="18"/>
       <c r="T138" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="14.25" customHeight="1">
@@ -6077,7 +6135,7 @@
       <c r="R139" s="17"/>
       <c r="S139" s="18"/>
       <c r="T139" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:20" ht="14.25" customHeight="1">
@@ -6101,7 +6159,7 @@
       <c r="R140" s="17"/>
       <c r="S140" s="18"/>
       <c r="T140" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:20" ht="14.25" customHeight="1">
@@ -6125,7 +6183,7 @@
       <c r="R141" s="17"/>
       <c r="S141" s="18"/>
       <c r="T141" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:20" ht="14.25" customHeight="1">
@@ -6149,7 +6207,7 @@
       <c r="R142" s="17"/>
       <c r="S142" s="18"/>
       <c r="T142" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:20" ht="14.25" customHeight="1">
@@ -6173,7 +6231,7 @@
       <c r="R143" s="17"/>
       <c r="S143" s="18"/>
       <c r="T143" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="14.25" customHeight="1">
@@ -6197,7 +6255,7 @@
       <c r="R144" s="17"/>
       <c r="S144" s="18"/>
       <c r="T144" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:20" ht="14.25" customHeight="1">
@@ -6221,7 +6279,7 @@
       <c r="R145" s="17"/>
       <c r="S145" s="18"/>
       <c r="T145" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="14.25" customHeight="1">
@@ -6245,7 +6303,7 @@
       <c r="R146" s="17"/>
       <c r="S146" s="18"/>
       <c r="T146" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="14.25" customHeight="1">
@@ -6269,7 +6327,7 @@
       <c r="R147" s="17"/>
       <c r="S147" s="18"/>
       <c r="T147" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:20" ht="14.25" customHeight="1">
@@ -6293,7 +6351,7 @@
       <c r="R148" s="17"/>
       <c r="S148" s="18"/>
       <c r="T148" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:20" ht="14.25" customHeight="1">
@@ -6317,7 +6375,7 @@
       <c r="R149" s="17"/>
       <c r="S149" s="18"/>
       <c r="T149" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150" spans="1:20" ht="14.25" customHeight="1">
@@ -6341,7 +6399,7 @@
       <c r="R150" s="17"/>
       <c r="S150" s="18"/>
       <c r="T150" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:20" ht="14.25" customHeight="1">
@@ -6365,7 +6423,7 @@
       <c r="R151" s="17"/>
       <c r="S151" s="18"/>
       <c r="T151" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:20" ht="14.25" customHeight="1">
@@ -6389,7 +6447,7 @@
       <c r="R152" s="17"/>
       <c r="S152" s="18"/>
       <c r="T152" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:20" ht="14.25" customHeight="1">
@@ -6413,7 +6471,7 @@
       <c r="R153" s="17"/>
       <c r="S153" s="18"/>
       <c r="T153" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:20" ht="14.25" customHeight="1">
@@ -6437,7 +6495,7 @@
       <c r="R154" s="17"/>
       <c r="S154" s="18"/>
       <c r="T154" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:20" ht="14.25" customHeight="1">
@@ -6461,7 +6519,7 @@
       <c r="R155" s="17"/>
       <c r="S155" s="18"/>
       <c r="T155" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:20" ht="14.25" customHeight="1">
@@ -6485,7 +6543,7 @@
       <c r="R156" s="17"/>
       <c r="S156" s="18"/>
       <c r="T156" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:20" ht="14.25" customHeight="1">
@@ -6509,7 +6567,7 @@
       <c r="R157" s="17"/>
       <c r="S157" s="18"/>
       <c r="T157" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:20" ht="14.25" customHeight="1">
@@ -6533,7 +6591,7 @@
       <c r="R158" s="17"/>
       <c r="S158" s="18"/>
       <c r="T158" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:20" ht="14.25" customHeight="1">
@@ -6557,7 +6615,7 @@
       <c r="R159" s="17"/>
       <c r="S159" s="18"/>
       <c r="T159" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160" spans="1:20" ht="14.25" customHeight="1">
@@ -6581,7 +6639,7 @@
       <c r="R160" s="17"/>
       <c r="S160" s="18"/>
       <c r="T160" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:20" ht="14.25" customHeight="1">
@@ -6605,7 +6663,7 @@
       <c r="R161" s="17"/>
       <c r="S161" s="18"/>
       <c r="T161" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="1:20" ht="14.25" customHeight="1">
@@ -6629,7 +6687,7 @@
       <c r="R162" s="17"/>
       <c r="S162" s="18"/>
       <c r="T162" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="1:20" ht="14.25" customHeight="1">
@@ -6653,7 +6711,7 @@
       <c r="R163" s="17"/>
       <c r="S163" s="18"/>
       <c r="T163" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164" spans="1:20" ht="14.25" customHeight="1">
@@ -6677,7 +6735,7 @@
       <c r="R164" s="17"/>
       <c r="S164" s="18"/>
       <c r="T164" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:20" ht="14.25" customHeight="1">
@@ -6701,7 +6759,7 @@
       <c r="R165" s="17"/>
       <c r="S165" s="18"/>
       <c r="T165" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166" spans="1:20" ht="14.25" customHeight="1">
@@ -6725,7 +6783,7 @@
       <c r="R166" s="17"/>
       <c r="S166" s="18"/>
       <c r="T166" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:20" ht="14.25" customHeight="1">
@@ -6749,7 +6807,7 @@
       <c r="R167" s="17"/>
       <c r="S167" s="18"/>
       <c r="T167" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="1:20" ht="14.25" customHeight="1">
@@ -6773,7 +6831,7 @@
       <c r="R168" s="17"/>
       <c r="S168" s="18"/>
       <c r="T168" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:20" ht="14.25" customHeight="1">
@@ -6797,7 +6855,7 @@
       <c r="R169" s="17"/>
       <c r="S169" s="18"/>
       <c r="T169" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:20" ht="14.25" customHeight="1">
@@ -6821,7 +6879,7 @@
       <c r="R170" s="17"/>
       <c r="S170" s="18"/>
       <c r="T170" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:20" ht="14.25" customHeight="1">
@@ -6845,7 +6903,7 @@
       <c r="R171" s="17"/>
       <c r="S171" s="18"/>
       <c r="T171" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172" spans="1:20" ht="14.25" customHeight="1">
@@ -6869,7 +6927,7 @@
       <c r="R172" s="17"/>
       <c r="S172" s="18"/>
       <c r="T172" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173" spans="1:20" ht="14.25" customHeight="1">
@@ -6893,7 +6951,7 @@
       <c r="R173" s="17"/>
       <c r="S173" s="18"/>
       <c r="T173" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174" spans="1:20" ht="14.25" customHeight="1">
@@ -6917,7 +6975,7 @@
       <c r="R174" s="17"/>
       <c r="S174" s="18"/>
       <c r="T174" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:20" ht="14.25" customHeight="1">
@@ -6941,7 +6999,7 @@
       <c r="R175" s="17"/>
       <c r="S175" s="18"/>
       <c r="T175" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" spans="1:20" ht="14.25" customHeight="1">
@@ -6965,7 +7023,7 @@
       <c r="R176" s="17"/>
       <c r="S176" s="18"/>
       <c r="T176" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:20" ht="14.25" customHeight="1">
@@ -6989,7 +7047,7 @@
       <c r="R177" s="17"/>
       <c r="S177" s="18"/>
       <c r="T177" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:20" ht="14.25" customHeight="1">
@@ -7013,7 +7071,7 @@
       <c r="R178" s="17"/>
       <c r="S178" s="18"/>
       <c r="T178" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:20" ht="14.25" customHeight="1">
@@ -7037,7 +7095,7 @@
       <c r="R179" s="17"/>
       <c r="S179" s="18"/>
       <c r="T179" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:20" ht="14.25" customHeight="1">
@@ -7061,7 +7119,7 @@
       <c r="R180" s="17"/>
       <c r="S180" s="18"/>
       <c r="T180" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:20" ht="14.25" customHeight="1">
@@ -7085,7 +7143,7 @@
       <c r="R181" s="17"/>
       <c r="S181" s="18"/>
       <c r="T181" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:20" ht="14.25" customHeight="1">
@@ -7109,7 +7167,7 @@
       <c r="R182" s="17"/>
       <c r="S182" s="18"/>
       <c r="T182" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:20" ht="14.25" customHeight="1">
@@ -7133,7 +7191,7 @@
       <c r="R183" s="17"/>
       <c r="S183" s="18"/>
       <c r="T183" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184" spans="1:20" ht="14.25" customHeight="1">
@@ -7157,7 +7215,7 @@
       <c r="R184" s="17"/>
       <c r="S184" s="18"/>
       <c r="T184" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185" spans="1:20" ht="14.25" customHeight="1">
@@ -7181,7 +7239,7 @@
       <c r="R185" s="17"/>
       <c r="S185" s="18"/>
       <c r="T185" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:20" ht="14.25" customHeight="1">
@@ -7205,7 +7263,7 @@
       <c r="R186" s="17"/>
       <c r="S186" s="18"/>
       <c r="T186" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187" spans="1:20" ht="14.25" customHeight="1">
@@ -7229,7 +7287,7 @@
       <c r="R187" s="17"/>
       <c r="S187" s="18"/>
       <c r="T187" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188" spans="1:20" ht="14.25" customHeight="1">
@@ -7253,7 +7311,7 @@
       <c r="R188" s="17"/>
       <c r="S188" s="18"/>
       <c r="T188" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189" spans="1:20" ht="14.25" customHeight="1">
@@ -7277,7 +7335,7 @@
       <c r="R189" s="17"/>
       <c r="S189" s="18"/>
       <c r="T189" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:20" ht="14.25" customHeight="1">
@@ -7301,7 +7359,7 @@
       <c r="R190" s="17"/>
       <c r="S190" s="18"/>
       <c r="T190" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:20" ht="14.25" customHeight="1">
@@ -7325,7 +7383,7 @@
       <c r="R191" s="17"/>
       <c r="S191" s="18"/>
       <c r="T191" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192" spans="1:20" ht="14.25" customHeight="1">
@@ -7349,7 +7407,7 @@
       <c r="R192" s="17"/>
       <c r="S192" s="18"/>
       <c r="T192" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193" spans="1:20" ht="14.25" customHeight="1">
@@ -7373,7 +7431,7 @@
       <c r="R193" s="17"/>
       <c r="S193" s="18"/>
       <c r="T193" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194" spans="1:20" ht="14.25" customHeight="1">
@@ -7397,7 +7455,7 @@
       <c r="R194" s="17"/>
       <c r="S194" s="18"/>
       <c r="T194" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:20" ht="14.25" customHeight="1">
@@ -7421,7 +7479,7 @@
       <c r="R195" s="17"/>
       <c r="S195" s="18"/>
       <c r="T195" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:20" ht="14.25" customHeight="1">
@@ -7445,7 +7503,7 @@
       <c r="R196" s="17"/>
       <c r="S196" s="18"/>
       <c r="T196" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197" spans="1:20" ht="14.25" customHeight="1">
@@ -7469,7 +7527,7 @@
       <c r="R197" s="17"/>
       <c r="S197" s="18"/>
       <c r="T197" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:20" ht="14.25" customHeight="1">
@@ -7493,7 +7551,7 @@
       <c r="R198" s="17"/>
       <c r="S198" s="18"/>
       <c r="T198" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:20" ht="241.5" customHeight="1">
@@ -7517,7 +7575,7 @@
       <c r="R199" s="17"/>
       <c r="S199" s="18"/>
       <c r="T199" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:20" ht="301.5" customHeight="1">
@@ -7541,7 +7599,7 @@
       <c r="R200" s="17"/>
       <c r="S200" s="18"/>
       <c r="T200" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:20" ht="14.25" customHeight="1">
@@ -7565,7 +7623,7 @@
       <c r="R201" s="17"/>
       <c r="S201" s="18"/>
       <c r="T201" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:20" ht="14.25" customHeight="1">
@@ -7589,7 +7647,7 @@
       <c r="R202" s="17"/>
       <c r="S202" s="18"/>
       <c r="T202" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:20" ht="14.25" customHeight="1">
@@ -7613,7 +7671,7 @@
       <c r="R203" s="17"/>
       <c r="S203" s="18"/>
       <c r="T203" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:20" ht="14.25" customHeight="1">
@@ -7637,7 +7695,7 @@
       <c r="R204" s="17"/>
       <c r="S204" s="18"/>
       <c r="T204" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:20" ht="14.25" customHeight="1">
@@ -7661,7 +7719,7 @@
       <c r="R205" s="17"/>
       <c r="S205" s="18"/>
       <c r="T205" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="206" spans="1:20" ht="14.25" customHeight="1">
@@ -7685,7 +7743,7 @@
       <c r="R206" s="17"/>
       <c r="S206" s="18"/>
       <c r="T206" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="207" spans="1:20" ht="14.25" customHeight="1">
@@ -7709,7 +7767,7 @@
       <c r="R207" s="17"/>
       <c r="S207" s="18"/>
       <c r="T207" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208" spans="1:20" ht="14.25" customHeight="1">
@@ -7733,7 +7791,7 @@
       <c r="R208" s="17"/>
       <c r="S208" s="18"/>
       <c r="T208" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:20" ht="14.25" customHeight="1">
@@ -7757,7 +7815,7 @@
       <c r="R209" s="17"/>
       <c r="S209" s="18"/>
       <c r="T209" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210" spans="1:20" ht="14.25" customHeight="1">
@@ -7781,7 +7839,7 @@
       <c r="R210" s="17"/>
       <c r="S210" s="18"/>
       <c r="T210" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211" spans="1:20" ht="14.25" customHeight="1">
@@ -7805,7 +7863,7 @@
       <c r="R211" s="17"/>
       <c r="S211" s="18"/>
       <c r="T211" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212" spans="1:20" ht="14.25" customHeight="1">
@@ -7829,7 +7887,7 @@
       <c r="R212" s="17"/>
       <c r="S212" s="18"/>
       <c r="T212" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:20" ht="14.25" customHeight="1">
@@ -7853,7 +7911,7 @@
       <c r="R213" s="17"/>
       <c r="S213" s="18"/>
       <c r="T213" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:20" ht="14.25" customHeight="1">
@@ -7877,7 +7935,7 @@
       <c r="R214" s="17"/>
       <c r="S214" s="18"/>
       <c r="T214" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215" spans="1:20" ht="236.25" customHeight="1">
@@ -7901,7 +7959,7 @@
       <c r="R215" s="17"/>
       <c r="S215" s="18"/>
       <c r="T215" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:20" ht="14.25" customHeight="1">
@@ -7909,16 +7967,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D216" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E216" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="E216" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="F216" s="14"/>
       <c r="G216" s="15"/>
@@ -7935,7 +7993,7 @@
       <c r="R216" s="17"/>
       <c r="S216" s="18"/>
       <c r="T216" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:20" ht="284.25" customHeight="1">
@@ -7943,16 +8001,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D217" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E217" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="E217" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="F217" s="14"/>
       <c r="G217" s="15"/>
@@ -7969,7 +8027,7 @@
       <c r="R217" s="17"/>
       <c r="S217" s="18"/>
       <c r="T217" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:20" ht="14.25" customHeight="1">
@@ -7977,16 +8035,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D218" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E218" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="E218" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="F218" s="14"/>
       <c r="G218" s="15"/>
@@ -8003,7 +8061,7 @@
       <c r="R218" s="17"/>
       <c r="S218" s="18"/>
       <c r="T218" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:20" ht="267.75" customHeight="1">
@@ -8011,16 +8069,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D219" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E219" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="E219" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="F219" s="14"/>
       <c r="G219" s="15"/>
@@ -8037,7 +8095,7 @@
       <c r="R219" s="17"/>
       <c r="S219" s="18"/>
       <c r="T219" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:20" ht="14.25" customHeight="1">
@@ -8045,16 +8103,16 @@
         <v>213</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D220" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E220" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="E220" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="F220" s="14"/>
       <c r="G220" s="15"/>
@@ -8071,7 +8129,7 @@
       <c r="R220" s="17"/>
       <c r="S220" s="18"/>
       <c r="T220" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221" spans="1:20" ht="14.25" customHeight="1">
@@ -8079,16 +8137,16 @@
         <v>214</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D221" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E221" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="E221" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="F221" s="14"/>
       <c r="G221" s="15"/>
@@ -8105,7 +8163,7 @@
       <c r="R221" s="17"/>
       <c r="S221" s="18"/>
       <c r="T221" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="222" spans="1:20" ht="14.25" customHeight="1">
@@ -8113,16 +8171,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D222" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E222" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="E222" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="F222" s="14"/>
       <c r="G222" s="15"/>
@@ -8139,7 +8197,7 @@
       <c r="R222" s="17"/>
       <c r="S222" s="18"/>
       <c r="T222" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="223" spans="1:20" ht="14.25" customHeight="1">
@@ -8147,16 +8205,16 @@
         <v>216</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D223" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E223" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="E223" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="F223" s="14"/>
       <c r="G223" s="15"/>
@@ -8173,7 +8231,7 @@
       <c r="R223" s="17"/>
       <c r="S223" s="18"/>
       <c r="T223" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:20" ht="14.25" customHeight="1">
@@ -8181,16 +8239,16 @@
         <v>217</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D224" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E224" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="F224" s="14"/>
       <c r="G224" s="15"/>
@@ -8207,7 +8265,7 @@
       <c r="R224" s="17"/>
       <c r="S224" s="18"/>
       <c r="T224" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:20" ht="14.25" customHeight="1">
@@ -8215,16 +8273,16 @@
         <v>218</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D225" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E225" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="E225" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="F225" s="14"/>
       <c r="G225" s="15"/>
@@ -8241,7 +8299,7 @@
       <c r="R225" s="17"/>
       <c r="S225" s="18"/>
       <c r="T225" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:20" ht="14.25" customHeight="1">
@@ -8249,16 +8307,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D226" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E226" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="E226" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="F226" s="14"/>
       <c r="G226" s="15"/>
@@ -8275,7 +8333,7 @@
       <c r="R226" s="17"/>
       <c r="S226" s="18"/>
       <c r="T226" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:20" ht="14.25" customHeight="1">
@@ -8283,16 +8341,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F227" s="14"/>
       <c r="G227" s="15"/>
@@ -8309,7 +8367,7 @@
       <c r="R227" s="17"/>
       <c r="S227" s="18"/>
       <c r="T227" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:20" ht="268.5" customHeight="1">
@@ -8317,16 +8375,16 @@
         <v>221</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D228" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E228" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="E228" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="F228" s="14"/>
       <c r="G228" s="15"/>
@@ -8343,7 +8401,7 @@
       <c r="R228" s="17"/>
       <c r="S228" s="18"/>
       <c r="T228" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:20" ht="14.25" customHeight="1">
@@ -8351,16 +8409,16 @@
         <v>222</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D229" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="E229" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="F229" s="14"/>
       <c r="G229" s="15"/>
@@ -8377,7 +8435,7 @@
       <c r="R229" s="17"/>
       <c r="S229" s="18"/>
       <c r="T229" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="230" spans="1:20" ht="14.25" customHeight="1">
@@ -8385,16 +8443,16 @@
         <v>223</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D230" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E230" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="E230" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="F230" s="14"/>
       <c r="G230" s="15"/>
@@ -8411,7 +8469,7 @@
       <c r="R230" s="17"/>
       <c r="S230" s="18"/>
       <c r="T230" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:20" ht="204" customHeight="1">
@@ -8419,16 +8477,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D231" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E231" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="E231" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="F231" s="14"/>
       <c r="G231" s="15"/>
@@ -8445,7 +8503,7 @@
       <c r="R231" s="17"/>
       <c r="S231" s="18"/>
       <c r="T231" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="1:20" ht="14.25" customHeight="1">
@@ -8453,16 +8511,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D232" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E232" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="E232" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="F232" s="14"/>
       <c r="G232" s="15"/>
@@ -8479,7 +8537,7 @@
       <c r="R232" s="17"/>
       <c r="S232" s="18"/>
       <c r="T232" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233" spans="1:20" ht="14.25" customHeight="1">
@@ -8487,16 +8545,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D233" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E233" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="E233" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="F233" s="14"/>
       <c r="G233" s="15"/>
@@ -8513,7 +8571,7 @@
       <c r="R233" s="17"/>
       <c r="S233" s="18"/>
       <c r="T233" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:20" ht="14.25" customHeight="1">
@@ -8521,16 +8579,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D234" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E234" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="E234" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="F234" s="14"/>
       <c r="G234" s="15"/>
@@ -8547,7 +8605,7 @@
       <c r="R234" s="17"/>
       <c r="S234" s="18"/>
       <c r="T234" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:20" ht="14.25" customHeight="1">
@@ -8555,16 +8613,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D235" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E235" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="E235" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="F235" s="14"/>
       <c r="G235" s="15"/>
@@ -8581,7 +8639,7 @@
       <c r="R235" s="17"/>
       <c r="S235" s="18"/>
       <c r="T235" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236" spans="1:20" ht="14.25" customHeight="1">
@@ -8589,16 +8647,16 @@
         <v>229</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D236" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E236" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="E236" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="F236" s="14"/>
       <c r="G236" s="15"/>
@@ -8615,7 +8673,7 @@
       <c r="R236" s="17"/>
       <c r="S236" s="18"/>
       <c r="T236" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237" spans="1:20" ht="14.25" customHeight="1">
@@ -8623,16 +8681,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D237" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E237" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="E237" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="F237" s="14"/>
       <c r="G237" s="15"/>
@@ -8649,7 +8707,7 @@
       <c r="R237" s="17"/>
       <c r="S237" s="18"/>
       <c r="T237" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="238" spans="1:20" ht="14.25" customHeight="1">
@@ -8657,16 +8715,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D238" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E238" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="E238" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="F238" s="14"/>
       <c r="G238" s="15"/>
@@ -8683,7 +8741,7 @@
       <c r="R238" s="17"/>
       <c r="S238" s="18"/>
       <c r="T238" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="239" spans="1:20" ht="14.25" customHeight="1">
@@ -8691,16 +8749,16 @@
         <v>232</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D239" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E239" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="E239" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="F239" s="14"/>
       <c r="G239" s="15"/>
@@ -8717,7 +8775,7 @@
       <c r="R239" s="17"/>
       <c r="S239" s="18"/>
       <c r="T239" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="240" spans="1:20" ht="14.25" customHeight="1">
@@ -8725,16 +8783,16 @@
         <v>233</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D240" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E240" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="E240" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="F240" s="14"/>
       <c r="G240" s="15"/>
@@ -8751,7 +8809,7 @@
       <c r="R240" s="17"/>
       <c r="S240" s="18"/>
       <c r="T240" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="241" spans="1:20" ht="14.25" customHeight="1">
@@ -8759,16 +8817,16 @@
         <v>234</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D241" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E241" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="E241" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="F241" s="14"/>
       <c r="G241" s="15"/>
@@ -8785,7 +8843,7 @@
       <c r="R241" s="17"/>
       <c r="S241" s="18"/>
       <c r="T241" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="242" spans="1:20" ht="14.25" customHeight="1">
@@ -8793,16 +8851,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D242" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E242" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="E242" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="F242" s="14"/>
       <c r="G242" s="15"/>
@@ -8819,7 +8877,7 @@
       <c r="R242" s="17"/>
       <c r="S242" s="18"/>
       <c r="T242" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="243" spans="1:20" ht="14.25" customHeight="1">
@@ -8827,16 +8885,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F243" s="14"/>
       <c r="G243" s="15"/>
@@ -8853,7 +8911,7 @@
       <c r="R243" s="17"/>
       <c r="S243" s="18"/>
       <c r="T243" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="244" spans="1:20" ht="14.25" customHeight="1">
@@ -8861,16 +8919,16 @@
         <v>237</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D244" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E244" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="E244" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="F244" s="14"/>
       <c r="G244" s="15"/>
@@ -8887,7 +8945,7 @@
       <c r="R244" s="17"/>
       <c r="S244" s="18"/>
       <c r="T244" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245" spans="1:20" ht="14.25" customHeight="1">
@@ -8895,16 +8953,16 @@
         <v>238</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D245" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E245" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="E245" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="F245" s="14"/>
       <c r="G245" s="15"/>
@@ -8921,7 +8979,7 @@
       <c r="R245" s="17"/>
       <c r="S245" s="18"/>
       <c r="T245" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246" spans="1:20" ht="14.25" customHeight="1">
@@ -8929,16 +8987,16 @@
         <v>239</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D246" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E246" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="E246" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="F246" s="14"/>
       <c r="G246" s="15"/>
@@ -8955,7 +9013,7 @@
       <c r="R246" s="17"/>
       <c r="S246" s="18"/>
       <c r="T246" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="247" spans="1:20" ht="14.25" customHeight="1">
@@ -8963,16 +9021,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D247" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E247" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="E247" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="F247" s="14"/>
       <c r="G247" s="15"/>
@@ -8989,7 +9047,7 @@
       <c r="R247" s="17"/>
       <c r="S247" s="18"/>
       <c r="T247" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:20" ht="14.25" customHeight="1">
@@ -8997,16 +9055,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D248" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E248" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="E248" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="F248" s="14"/>
       <c r="G248" s="15"/>
@@ -9023,7 +9081,7 @@
       <c r="R248" s="17"/>
       <c r="S248" s="18"/>
       <c r="T248" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="249" spans="1:20" ht="14.25" customHeight="1">
@@ -9031,16 +9089,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D249" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E249" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="E249" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="F249" s="14"/>
       <c r="G249" s="15"/>
@@ -9057,7 +9115,7 @@
       <c r="R249" s="17"/>
       <c r="S249" s="18"/>
       <c r="T249" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="250" spans="1:20" ht="14.25" customHeight="1">
@@ -9065,16 +9123,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D250" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E250" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="E250" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="F250" s="14"/>
       <c r="G250" s="15"/>
@@ -9091,7 +9149,7 @@
       <c r="R250" s="17"/>
       <c r="S250" s="18"/>
       <c r="T250" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:20" ht="14.25" customHeight="1">
@@ -9099,16 +9157,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D251" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E251" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="E251" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="F251" s="14"/>
       <c r="G251" s="15"/>
@@ -9125,7 +9183,7 @@
       <c r="R251" s="17"/>
       <c r="S251" s="18"/>
       <c r="T251" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="252" spans="1:20" ht="14.25" customHeight="1">
@@ -9133,16 +9191,16 @@
         <v>245</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D252" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E252" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="E252" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="F252" s="14"/>
       <c r="G252" s="15"/>
@@ -9159,7 +9217,7 @@
       <c r="R252" s="17"/>
       <c r="S252" s="18"/>
       <c r="T252" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="253" spans="1:20" ht="14.25" customHeight="1">
@@ -9167,16 +9225,16 @@
         <v>246</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D253" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E253" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="E253" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="F253" s="14"/>
       <c r="G253" s="15"/>
@@ -9193,7 +9251,7 @@
       <c r="R253" s="17"/>
       <c r="S253" s="18"/>
       <c r="T253" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="254" spans="1:20" ht="14.25" customHeight="1">
@@ -9201,16 +9259,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D254" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E254" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="E254" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="F254" s="14"/>
       <c r="G254" s="15"/>
@@ -9227,7 +9285,7 @@
       <c r="R254" s="17"/>
       <c r="S254" s="18"/>
       <c r="T254" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="255" spans="1:20" ht="14.25" customHeight="1">
@@ -9235,16 +9293,16 @@
         <v>248</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D255" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E255" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="E255" s="13" t="s">
-        <v>117</v>
       </c>
       <c r="F255" s="14"/>
       <c r="G255" s="15"/>
@@ -9261,7 +9319,7 @@
       <c r="R255" s="17"/>
       <c r="S255" s="18"/>
       <c r="T255" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="256" spans="1:20" ht="14.25" customHeight="1">
@@ -9269,16 +9327,16 @@
         <v>249</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D256" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E256" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="E256" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="F256" s="14"/>
       <c r="G256" s="15"/>
@@ -9295,7 +9353,7 @@
       <c r="R256" s="17"/>
       <c r="S256" s="18"/>
       <c r="T256" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="257" spans="1:20" ht="14.25" customHeight="1">
@@ -9303,16 +9361,16 @@
         <v>250</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D257" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E257" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="E257" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="F257" s="14"/>
       <c r="G257" s="15"/>
@@ -9329,7 +9387,7 @@
       <c r="R257" s="17"/>
       <c r="S257" s="18"/>
       <c r="T257" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="258" spans="1:20" ht="14.25" customHeight="1">
@@ -9337,16 +9395,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D258" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E258" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="E258" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="F258" s="14"/>
       <c r="G258" s="15"/>
@@ -9363,7 +9421,7 @@
       <c r="R258" s="17"/>
       <c r="S258" s="18"/>
       <c r="T258" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="259" spans="1:20" ht="14.25" customHeight="1">
@@ -9371,16 +9429,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F259" s="14"/>
       <c r="G259" s="15"/>
@@ -9397,7 +9455,7 @@
       <c r="R259" s="17"/>
       <c r="S259" s="18"/>
       <c r="T259" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="260" spans="1:20" ht="14.25" customHeight="1">
@@ -9405,16 +9463,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D260" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E260" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="E260" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="F260" s="14"/>
       <c r="G260" s="15"/>
@@ -9431,7 +9489,7 @@
       <c r="R260" s="17"/>
       <c r="S260" s="18"/>
       <c r="T260" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261" spans="1:20" ht="14.25" customHeight="1">
@@ -9439,16 +9497,16 @@
         <v>254</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D261" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E261" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="E261" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="F261" s="14"/>
       <c r="G261" s="15"/>
@@ -9465,7 +9523,7 @@
       <c r="R261" s="17"/>
       <c r="S261" s="18"/>
       <c r="T261" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="262" spans="1:20" ht="14.25" customHeight="1">
@@ -9473,16 +9531,16 @@
         <v>255</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D262" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E262" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="E262" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="F262" s="14"/>
       <c r="G262" s="15"/>
@@ -9499,7 +9557,7 @@
       <c r="R262" s="17"/>
       <c r="S262" s="18"/>
       <c r="T262" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="263" spans="1:20" ht="14.25" customHeight="1">
@@ -9507,16 +9565,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D263" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E263" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="E263" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="F263" s="14"/>
       <c r="G263" s="15"/>
@@ -9533,7 +9591,7 @@
       <c r="R263" s="17"/>
       <c r="S263" s="18"/>
       <c r="T263" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="264" spans="1:20" ht="14.25" customHeight="1">
@@ -9541,16 +9599,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D264" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E264" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="E264" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="F264" s="14"/>
       <c r="G264" s="15"/>
@@ -9567,7 +9625,7 @@
       <c r="R264" s="17"/>
       <c r="S264" s="18"/>
       <c r="T264" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" spans="1:20" ht="14.25" customHeight="1">
@@ -9575,16 +9633,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D265" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E265" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="E265" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="F265" s="14"/>
       <c r="G265" s="15"/>
@@ -9601,7 +9659,7 @@
       <c r="R265" s="17"/>
       <c r="S265" s="18"/>
       <c r="T265" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" spans="1:20" ht="14.25" customHeight="1">
@@ -9609,16 +9667,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D266" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E266" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="E266" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="F266" s="14"/>
       <c r="G266" s="15"/>
@@ -9635,7 +9693,7 @@
       <c r="R266" s="17"/>
       <c r="S266" s="18"/>
       <c r="T266" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267" spans="1:20" ht="14.25" customHeight="1">
@@ -9643,16 +9701,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D267" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E267" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="E267" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="F267" s="14"/>
       <c r="G267" s="15"/>
@@ -9669,7 +9727,7 @@
       <c r="R267" s="17"/>
       <c r="S267" s="18"/>
       <c r="T267" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268" spans="1:20" ht="14.25" customHeight="1">
@@ -9677,16 +9735,16 @@
         <v>261</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D268" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E268" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="E268" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="F268" s="14"/>
       <c r="G268" s="15"/>
@@ -9703,7 +9761,7 @@
       <c r="R268" s="17"/>
       <c r="S268" s="18"/>
       <c r="T268" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="269" spans="1:20" ht="14.25" customHeight="1">
@@ -9711,16 +9769,16 @@
         <v>262</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D269" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E269" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="E269" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="F269" s="14"/>
       <c r="G269" s="15"/>
@@ -9737,7 +9795,7 @@
       <c r="R269" s="17"/>
       <c r="S269" s="18"/>
       <c r="T269" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270" spans="1:20" ht="14.25" customHeight="1">
@@ -9745,16 +9803,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D270" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E270" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="E270" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="F270" s="14"/>
       <c r="G270" s="15"/>
@@ -9771,7 +9829,7 @@
       <c r="R270" s="17"/>
       <c r="S270" s="18"/>
       <c r="T270" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="271" spans="1:20" ht="14.25" customHeight="1">
@@ -9779,16 +9837,16 @@
         <v>264</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D271" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E271" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="E271" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="F271" s="14"/>
       <c r="G271" s="15"/>
@@ -9805,7 +9863,7 @@
       <c r="R271" s="17"/>
       <c r="S271" s="18"/>
       <c r="T271" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="272" spans="1:20" ht="14.25" customHeight="1">
@@ -9813,16 +9871,16 @@
         <v>265</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D272" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E272" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="E272" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="F272" s="14"/>
       <c r="G272" s="15"/>
@@ -9839,7 +9897,7 @@
       <c r="R272" s="17"/>
       <c r="S272" s="18"/>
       <c r="T272" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="273" spans="1:20" ht="14.25" customHeight="1">
@@ -9847,16 +9905,16 @@
         <v>266</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D273" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E273" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="E273" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="F273" s="14"/>
       <c r="G273" s="15"/>
@@ -9873,7 +9931,7 @@
       <c r="R273" s="17"/>
       <c r="S273" s="18"/>
       <c r="T273" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274" spans="1:20" ht="14.25" customHeight="1">
@@ -9881,16 +9939,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D274" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E274" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="E274" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="F274" s="14"/>
       <c r="G274" s="15"/>
@@ -9907,7 +9965,7 @@
       <c r="R274" s="17"/>
       <c r="S274" s="18"/>
       <c r="T274" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="275" spans="1:20" ht="14.25" customHeight="1">
@@ -9915,16 +9973,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F275" s="14"/>
       <c r="G275" s="15"/>
@@ -9941,7 +9999,7 @@
       <c r="R275" s="17"/>
       <c r="S275" s="18"/>
       <c r="T275" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276" spans="1:20" ht="14.25" customHeight="1">
@@ -9949,16 +10007,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D276" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E276" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="E276" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="F276" s="14"/>
       <c r="G276" s="15"/>
@@ -9975,7 +10033,7 @@
       <c r="R276" s="17"/>
       <c r="S276" s="18"/>
       <c r="T276" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="277" spans="1:20" ht="14.25" customHeight="1">
@@ -9983,16 +10041,16 @@
         <v>270</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D277" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E277" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="E277" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="F277" s="14"/>
       <c r="G277" s="15"/>
@@ -10009,7 +10067,7 @@
       <c r="R277" s="17"/>
       <c r="S277" s="18"/>
       <c r="T277" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="278" spans="1:20" ht="14.25" customHeight="1">
@@ -10017,16 +10075,16 @@
         <v>271</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D278" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E278" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="E278" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="F278" s="14"/>
       <c r="G278" s="15"/>
@@ -10043,7 +10101,7 @@
       <c r="R278" s="17"/>
       <c r="S278" s="18"/>
       <c r="T278" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="279" spans="1:20" ht="237" customHeight="1">
@@ -10051,16 +10109,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D279" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E279" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="E279" s="13" t="s">
-        <v>163</v>
       </c>
       <c r="F279" s="14"/>
       <c r="G279" s="15"/>
@@ -10077,7 +10135,7 @@
       <c r="R279" s="17"/>
       <c r="S279" s="18"/>
       <c r="T279" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="280" spans="1:20" ht="14.25" customHeight="1">
@@ -10085,16 +10143,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D280" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E280" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="E280" s="13" t="s">
-        <v>165</v>
       </c>
       <c r="F280" s="14"/>
       <c r="G280" s="15"/>
@@ -10111,7 +10169,7 @@
       <c r="R280" s="17"/>
       <c r="S280" s="18"/>
       <c r="T280" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="281" spans="1:20" ht="14.25" customHeight="1">
@@ -10119,16 +10177,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D281" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E281" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="E281" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="F281" s="14"/>
       <c r="G281" s="15"/>
@@ -10145,7 +10203,7 @@
       <c r="R281" s="17"/>
       <c r="S281" s="18"/>
       <c r="T281" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="282" spans="1:20" ht="14.25" customHeight="1">
@@ -10153,16 +10211,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D282" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E282" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="E282" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="F282" s="14"/>
       <c r="G282" s="15"/>
@@ -10179,7 +10237,7 @@
       <c r="R282" s="17"/>
       <c r="S282" s="18"/>
       <c r="T282" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="283" spans="1:20" ht="14.25" customHeight="1">
@@ -10187,16 +10245,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D283" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E283" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="E283" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="F283" s="14"/>
       <c r="G283" s="15"/>
@@ -10213,7 +10271,7 @@
       <c r="R283" s="17"/>
       <c r="S283" s="18"/>
       <c r="T283" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="284" spans="1:20" ht="14.25" customHeight="1">
@@ -10221,16 +10279,16 @@
         <v>277</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D284" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E284" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="E284" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="F284" s="14"/>
       <c r="G284" s="15"/>
@@ -10247,7 +10305,7 @@
       <c r="R284" s="17"/>
       <c r="S284" s="18"/>
       <c r="T284" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285" spans="1:20" ht="14.25" customHeight="1">
@@ -10255,16 +10313,16 @@
         <v>278</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D285" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E285" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="E285" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="F285" s="14"/>
       <c r="G285" s="15"/>
@@ -10281,7 +10339,7 @@
       <c r="R285" s="17"/>
       <c r="S285" s="18"/>
       <c r="T285" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="286" spans="1:20" ht="14.25" customHeight="1">
@@ -10289,16 +10347,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D286" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E286" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="E286" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="F286" s="14"/>
       <c r="G286" s="15"/>
@@ -10315,7 +10373,7 @@
       <c r="R286" s="17"/>
       <c r="S286" s="18"/>
       <c r="T286" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="287" spans="1:20" ht="14.25" customHeight="1">
@@ -10323,16 +10381,16 @@
         <v>280</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D287" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E287" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="E287" s="13" t="s">
-        <v>179</v>
       </c>
       <c r="F287" s="14"/>
       <c r="G287" s="15"/>
@@ -10349,7 +10407,7 @@
       <c r="R287" s="17"/>
       <c r="S287" s="18"/>
       <c r="T287" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="288" spans="1:20" ht="14.25" customHeight="1">
@@ -10357,16 +10415,16 @@
         <v>281</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E288" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="E288" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="F288" s="14"/>
       <c r="G288" s="15"/>
@@ -10383,7 +10441,7 @@
       <c r="R288" s="17"/>
       <c r="S288" s="18"/>
       <c r="T288" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="289" spans="1:20" ht="14.25" customHeight="1">
@@ -10391,16 +10449,16 @@
         <v>282</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D289" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E289" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="E289" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="F289" s="14"/>
       <c r="G289" s="15"/>
@@ -10417,7 +10475,7 @@
       <c r="R289" s="17"/>
       <c r="S289" s="18"/>
       <c r="T289" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="290" spans="1:20" ht="14.25" customHeight="1">
@@ -10425,16 +10483,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D290" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E290" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="E290" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="F290" s="14"/>
       <c r="G290" s="15"/>
@@ -10451,7 +10509,7 @@
       <c r="R290" s="17"/>
       <c r="S290" s="18"/>
       <c r="T290" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="291" spans="1:20" ht="14.25" customHeight="1">
@@ -10459,16 +10517,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E291" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F291" s="14"/>
       <c r="G291" s="15"/>
@@ -10485,7 +10543,7 @@
       <c r="R291" s="17"/>
       <c r="S291" s="18"/>
       <c r="T291" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="292" spans="1:20" ht="14.25" customHeight="1">
@@ -10493,16 +10551,16 @@
         <v>285</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D292" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E292" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="E292" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="F292" s="14"/>
       <c r="G292" s="15"/>
@@ -10519,7 +10577,7 @@
       <c r="R292" s="17"/>
       <c r="S292" s="18"/>
       <c r="T292" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="293" spans="1:20" ht="14.25" customHeight="1">
@@ -10527,16 +10585,16 @@
         <v>286</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D293" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E293" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="E293" s="13" t="s">
-        <v>190</v>
       </c>
       <c r="F293" s="14"/>
       <c r="G293" s="15"/>
@@ -10553,7 +10611,7 @@
       <c r="R293" s="17"/>
       <c r="S293" s="18"/>
       <c r="T293" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="294" spans="1:20" ht="263.25" customHeight="1">
@@ -10561,16 +10619,16 @@
         <v>287</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D294" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E294" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="E294" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="F294" s="14"/>
       <c r="G294" s="15"/>
@@ -10587,7 +10645,7 @@
       <c r="R294" s="17"/>
       <c r="S294" s="18"/>
       <c r="T294" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="295" spans="1:20" ht="264" customHeight="1">
@@ -10595,16 +10653,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D295" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E295" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="E295" s="13" t="s">
-        <v>194</v>
       </c>
       <c r="F295" s="14"/>
       <c r="G295" s="15"/>
@@ -10621,7 +10679,7 @@
       <c r="R295" s="17"/>
       <c r="S295" s="18"/>
       <c r="T295" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="296" spans="1:20" ht="14.25" customHeight="1">
@@ -10629,16 +10687,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D296" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E296" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="E296" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="F296" s="14"/>
       <c r="G296" s="15"/>
@@ -10655,7 +10713,7 @@
       <c r="R296" s="17"/>
       <c r="S296" s="18"/>
       <c r="T296" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="297" spans="1:20" ht="14.25" customHeight="1">
@@ -10663,16 +10721,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D297" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E297" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="E297" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="F297" s="14"/>
       <c r="G297" s="15"/>
@@ -10689,7 +10747,7 @@
       <c r="R297" s="17"/>
       <c r="S297" s="18"/>
       <c r="T297" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="298" spans="1:20" ht="14.25" customHeight="1">
@@ -10697,16 +10755,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D298" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E298" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="E298" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="F298" s="14"/>
       <c r="G298" s="15"/>
@@ -10723,7 +10781,7 @@
       <c r="R298" s="17"/>
       <c r="S298" s="18"/>
       <c r="T298" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="299" spans="1:20" ht="14.25" customHeight="1">
@@ -10731,16 +10789,16 @@
         <v>292</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D299" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E299" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="E299" s="13" t="s">
-        <v>202</v>
       </c>
       <c r="F299" s="14"/>
       <c r="G299" s="15"/>
@@ -10757,7 +10815,7 @@
       <c r="R299" s="17"/>
       <c r="S299" s="18"/>
       <c r="T299" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300" spans="1:20" ht="14.25" customHeight="1">
@@ -10765,16 +10823,16 @@
         <v>293</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D300" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E300" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="E300" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="F300" s="14"/>
       <c r="G300" s="15"/>
@@ -10791,7 +10849,7 @@
       <c r="R300" s="17"/>
       <c r="S300" s="18"/>
       <c r="T300" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="301" spans="1:20" ht="14.25" customHeight="1">
@@ -10799,16 +10857,16 @@
         <v>294</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D301" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E301" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="E301" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="F301" s="14"/>
       <c r="G301" s="15"/>
@@ -10825,7 +10883,7 @@
       <c r="R301" s="17"/>
       <c r="S301" s="18"/>
       <c r="T301" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="302" spans="1:20" ht="14.25" customHeight="1">
@@ -10833,16 +10891,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D302" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E302" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="E302" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="F302" s="14"/>
       <c r="G302" s="15"/>
@@ -10859,7 +10917,7 @@
       <c r="R302" s="17"/>
       <c r="S302" s="18"/>
       <c r="T302" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="303" spans="1:20" ht="14.25" customHeight="1">
@@ -10867,16 +10925,16 @@
         <v>296</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D303" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E303" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="E303" s="13" t="s">
-        <v>210</v>
       </c>
       <c r="F303" s="14"/>
       <c r="G303" s="15"/>
@@ -10893,7 +10951,7 @@
       <c r="R303" s="17"/>
       <c r="S303" s="18"/>
       <c r="T303" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="304" spans="1:20" ht="14.25" customHeight="1">
@@ -10901,16 +10959,16 @@
         <v>297</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D304" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E304" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="E304" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="F304" s="14"/>
       <c r="G304" s="15"/>
@@ -10927,7 +10985,7 @@
       <c r="R304" s="17"/>
       <c r="S304" s="18"/>
       <c r="T304" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="305" spans="1:20" ht="14.25" customHeight="1">
@@ -10935,16 +10993,16 @@
         <v>298</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D305" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E305" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="E305" s="13" t="s">
-        <v>214</v>
       </c>
       <c r="F305" s="14"/>
       <c r="G305" s="15"/>
@@ -10961,7 +11019,7 @@
       <c r="R305" s="17"/>
       <c r="S305" s="18"/>
       <c r="T305" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="306" spans="1:20" ht="14.25" customHeight="1">
@@ -10969,16 +11027,16 @@
         <v>299</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D306" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E306" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="E306" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="F306" s="14"/>
       <c r="G306" s="15"/>
@@ -10995,7 +11053,7 @@
       <c r="R306" s="17"/>
       <c r="S306" s="18"/>
       <c r="T306" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="307" spans="1:20" ht="14.25" customHeight="1">
@@ -11003,16 +11061,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E307" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F307" s="14"/>
       <c r="G307" s="15"/>
@@ -11029,7 +11087,7 @@
       <c r="R307" s="17"/>
       <c r="S307" s="18"/>
       <c r="T307" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="308" spans="1:20" ht="14.25" customHeight="1">
@@ -11037,16 +11095,16 @@
         <v>301</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D308" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E308" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="E308" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="F308" s="14"/>
       <c r="G308" s="15"/>
@@ -11063,7 +11121,7 @@
       <c r="R308" s="17"/>
       <c r="S308" s="18"/>
       <c r="T308" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="309" spans="1:20" ht="14.25" customHeight="1">
@@ -11071,16 +11129,16 @@
         <v>302</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D309" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E309" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="E309" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="F309" s="14"/>
       <c r="G309" s="15"/>
@@ -11097,7 +11155,7 @@
       <c r="R309" s="17"/>
       <c r="S309" s="18"/>
       <c r="T309" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="310" spans="1:20" ht="14.25" customHeight="1">
@@ -11105,16 +11163,16 @@
         <v>303</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D310" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E310" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="E310" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="F310" s="14"/>
       <c r="G310" s="15"/>
@@ -11131,7 +11189,7 @@
       <c r="R310" s="17"/>
       <c r="S310" s="18"/>
       <c r="T310" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="311" spans="1:20" ht="14.25" customHeight="1">
@@ -11139,16 +11197,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D311" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E311" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="E311" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="F311" s="14"/>
       <c r="G311" s="15"/>
@@ -11165,7 +11223,7 @@
       <c r="R311" s="17"/>
       <c r="S311" s="18"/>
       <c r="T311" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="312" spans="1:20" ht="14.25" customHeight="1">
@@ -11173,16 +11231,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D312" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E312" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="E312" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="F312" s="14"/>
       <c r="G312" s="15"/>
@@ -11199,7 +11257,7 @@
       <c r="R312" s="17"/>
       <c r="S312" s="18"/>
       <c r="T312" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="313" spans="1:20" ht="14.25" customHeight="1">
@@ -11207,16 +11265,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D313" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E313" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="E313" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="F313" s="14"/>
       <c r="G313" s="15"/>
@@ -11233,7 +11291,7 @@
       <c r="R313" s="17"/>
       <c r="S313" s="18"/>
       <c r="T313" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:20" ht="14.25" customHeight="1">
@@ -11241,16 +11299,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D314" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E314" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="E314" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="F314" s="14"/>
       <c r="G314" s="15"/>
@@ -11267,7 +11325,7 @@
       <c r="R314" s="17"/>
       <c r="S314" s="18"/>
       <c r="T314" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="315" spans="1:20" ht="14.25" customHeight="1">
@@ -11275,16 +11333,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D315" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E315" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="E315" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="F315" s="14"/>
       <c r="G315" s="15"/>
@@ -11301,7 +11359,7 @@
       <c r="R315" s="17"/>
       <c r="S315" s="18"/>
       <c r="T315" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="316" spans="1:20" ht="14.25" customHeight="1">
@@ -11309,16 +11367,16 @@
         <v>309</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D316" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E316" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="E316" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="F316" s="14"/>
       <c r="G316" s="15"/>
@@ -11335,7 +11393,7 @@
       <c r="R316" s="17"/>
       <c r="S316" s="18"/>
       <c r="T316" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="317" spans="1:20" ht="14.25" customHeight="1">
@@ -11343,16 +11401,16 @@
         <v>310</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D317" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E317" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="E317" s="13" t="s">
-        <v>237</v>
       </c>
       <c r="F317" s="14"/>
       <c r="G317" s="15"/>
@@ -11369,7 +11427,7 @@
       <c r="R317" s="17"/>
       <c r="S317" s="18"/>
       <c r="T317" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="318" spans="1:20" ht="14.25" customHeight="1">
@@ -11377,16 +11435,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D318" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E318" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="E318" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="F318" s="14"/>
       <c r="G318" s="15"/>
@@ -11403,7 +11461,7 @@
       <c r="R318" s="17"/>
       <c r="S318" s="18"/>
       <c r="T318" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="319" spans="1:20" ht="14.25" customHeight="1">
@@ -11411,16 +11469,16 @@
         <v>312</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D319" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E319" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="E319" s="13" t="s">
-        <v>241</v>
       </c>
       <c r="F319" s="14"/>
       <c r="G319" s="15"/>
@@ -11437,7 +11495,7 @@
       <c r="R319" s="17"/>
       <c r="S319" s="18"/>
       <c r="T319" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="320" spans="1:20" ht="14.25" customHeight="1">
@@ -11445,16 +11503,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D320" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E320" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="E320" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="F320" s="14"/>
       <c r="G320" s="15"/>
@@ -11471,7 +11529,7 @@
       <c r="R320" s="17"/>
       <c r="S320" s="18"/>
       <c r="T320" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="321" spans="1:20" ht="14.25" customHeight="1">
@@ -11479,16 +11537,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D321" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E321" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="E321" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="F321" s="14"/>
       <c r="G321" s="15"/>
@@ -11505,7 +11563,7 @@
       <c r="R321" s="17"/>
       <c r="S321" s="18"/>
       <c r="T321" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="322" spans="1:20" ht="14.25" customHeight="1">
@@ -11513,16 +11571,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D322" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E322" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="E322" s="13" t="s">
-        <v>247</v>
       </c>
       <c r="F322" s="14"/>
       <c r="G322" s="15"/>
@@ -11539,7 +11597,7 @@
       <c r="R322" s="17"/>
       <c r="S322" s="18"/>
       <c r="T322" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="323" spans="1:20" ht="14.25" customHeight="1">
@@ -11547,16 +11605,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E323" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F323" s="14"/>
       <c r="G323" s="15"/>
@@ -11573,7 +11631,7 @@
       <c r="R323" s="17"/>
       <c r="S323" s="18"/>
       <c r="T323" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="324" spans="1:20" ht="253.5" customHeight="1">
@@ -11581,16 +11639,16 @@
         <v>317</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D324" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E324" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="E324" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="F324" s="14"/>
       <c r="G324" s="15"/>
@@ -11607,7 +11665,7 @@
       <c r="R324" s="17"/>
       <c r="S324" s="18"/>
       <c r="T324" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="325" spans="1:20" ht="282.75" customHeight="1">
@@ -11615,16 +11673,16 @@
         <v>318</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D325" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E325" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="E325" s="13" t="s">
-        <v>252</v>
       </c>
       <c r="F325" s="14"/>
       <c r="G325" s="15"/>
@@ -11641,7 +11699,7 @@
       <c r="R325" s="17"/>
       <c r="S325" s="18"/>
       <c r="T325" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="326" spans="1:20" ht="14.25" customHeight="1">
@@ -11649,16 +11707,16 @@
         <v>319</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D326" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E326" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="E326" s="13" t="s">
-        <v>254</v>
       </c>
       <c r="F326" s="14"/>
       <c r="G326" s="15"/>
@@ -11675,7 +11733,7 @@
       <c r="R326" s="17"/>
       <c r="S326" s="18"/>
       <c r="T326" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="327" spans="1:20" ht="242.25" customHeight="1">
@@ -11683,16 +11741,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C327" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D327" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E327" s="13" t="s">
         <v>255</v>
-      </c>
-      <c r="E327" s="13" t="s">
-        <v>256</v>
       </c>
       <c r="F327" s="14"/>
       <c r="G327" s="15"/>
@@ -11709,7 +11767,7 @@
       <c r="R327" s="17"/>
       <c r="S327" s="18"/>
       <c r="T327" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="328" spans="1:20" ht="242.25" customHeight="1">
@@ -11717,16 +11775,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C328" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D328" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E328" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="E328" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="F328" s="14"/>
       <c r="G328" s="15"/>
@@ -11743,7 +11801,7 @@
       <c r="R328" s="17"/>
       <c r="S328" s="18"/>
       <c r="T328" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="329" spans="1:20" ht="315" customHeight="1">
@@ -11751,16 +11809,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C329" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D329" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E329" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="E329" s="13" t="s">
-        <v>260</v>
       </c>
       <c r="F329" s="14"/>
       <c r="G329" s="15"/>
@@ -11777,7 +11835,7 @@
       <c r="R329" s="17"/>
       <c r="S329" s="18"/>
       <c r="T329" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="330" spans="1:20" ht="259.5" customHeight="1">
@@ -11785,16 +11843,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C330" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D330" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E330" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="E330" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="F330" s="14"/>
       <c r="G330" s="15"/>
@@ -11811,7 +11869,7 @@
       <c r="R330" s="17"/>
       <c r="S330" s="18"/>
       <c r="T330" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="331" spans="1:20" ht="242.25" customHeight="1">
@@ -11819,16 +11877,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D331" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E331" s="13" t="s">
         <v>263</v>
-      </c>
-      <c r="E331" s="13" t="s">
-        <v>264</v>
       </c>
       <c r="F331" s="14"/>
       <c r="G331" s="15"/>
@@ -11845,7 +11903,7 @@
       <c r="R331" s="17"/>
       <c r="S331" s="18"/>
       <c r="T331" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="332" spans="1:20" ht="242.25" customHeight="1">
@@ -11853,16 +11911,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D332" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E332" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="E332" s="13" t="s">
-        <v>266</v>
       </c>
       <c r="F332" s="14"/>
       <c r="G332" s="15"/>
@@ -11879,7 +11937,7 @@
       <c r="R332" s="17"/>
       <c r="S332" s="18"/>
       <c r="T332" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="333" spans="1:20" ht="315" customHeight="1">
@@ -11887,16 +11945,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D333" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E333" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="E333" s="13" t="s">
-        <v>268</v>
       </c>
       <c r="F333" s="14"/>
       <c r="G333" s="15"/>
@@ -11913,7 +11971,7 @@
       <c r="R333" s="17"/>
       <c r="S333" s="18"/>
       <c r="T333" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="334" spans="1:20" ht="259.5" customHeight="1">
@@ -11921,16 +11979,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D334" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E334" s="13" t="s">
         <v>269</v>
-      </c>
-      <c r="E334" s="13" t="s">
-        <v>270</v>
       </c>
       <c r="F334" s="14"/>
       <c r="G334" s="15"/>
@@ -11947,7 +12005,7 @@
       <c r="R334" s="17"/>
       <c r="S334" s="18"/>
       <c r="T334" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="335" spans="1:20" ht="242.25" customHeight="1">
@@ -11955,16 +12013,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D335" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E335" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="E335" s="13" t="s">
-        <v>272</v>
       </c>
       <c r="F335" s="14"/>
       <c r="G335" s="15"/>
@@ -11981,7 +12039,7 @@
       <c r="R335" s="17"/>
       <c r="S335" s="18"/>
       <c r="T335" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="336" spans="1:20" ht="242.25" customHeight="1">
@@ -11989,16 +12047,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D336" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E336" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="E336" s="13" t="s">
-        <v>274</v>
       </c>
       <c r="F336" s="14"/>
       <c r="G336" s="15"/>
@@ -12015,7 +12073,7 @@
       <c r="R336" s="17"/>
       <c r="S336" s="18"/>
       <c r="T336" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="337" spans="1:20" ht="315" customHeight="1">
@@ -12023,16 +12081,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D337" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E337" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="E337" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="F337" s="14"/>
       <c r="G337" s="15"/>
@@ -12049,7 +12107,7 @@
       <c r="R337" s="17"/>
       <c r="S337" s="18"/>
       <c r="T337" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="338" spans="1:20" ht="259.5" customHeight="1">
@@ -12057,16 +12115,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D338" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E338" s="13" t="s">
         <v>277</v>
-      </c>
-      <c r="E338" s="13" t="s">
-        <v>278</v>
       </c>
       <c r="F338" s="14"/>
       <c r="G338" s="15"/>
@@ -12083,7 +12141,7 @@
       <c r="R338" s="17"/>
       <c r="S338" s="18"/>
       <c r="T338" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="339" spans="1:20" ht="242.25" customHeight="1">
@@ -12091,16 +12149,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D339" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E339" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="E339" s="13" t="s">
-        <v>280</v>
       </c>
       <c r="F339" s="14"/>
       <c r="G339" s="15"/>
@@ -12117,7 +12175,7 @@
       <c r="R339" s="17"/>
       <c r="S339" s="18"/>
       <c r="T339" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="340" spans="1:20" ht="242.25" customHeight="1">
@@ -12125,16 +12183,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D340" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E340" s="13" t="s">
         <v>281</v>
-      </c>
-      <c r="E340" s="13" t="s">
-        <v>282</v>
       </c>
       <c r="F340" s="14"/>
       <c r="G340" s="15"/>
@@ -12151,7 +12209,7 @@
       <c r="R340" s="17"/>
       <c r="S340" s="18"/>
       <c r="T340" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="341" spans="1:20" ht="315" customHeight="1">
@@ -12159,16 +12217,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D341" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E341" s="13" t="s">
         <v>283</v>
-      </c>
-      <c r="E341" s="13" t="s">
-        <v>284</v>
       </c>
       <c r="F341" s="14"/>
       <c r="G341" s="15"/>
@@ -12185,7 +12243,7 @@
       <c r="R341" s="17"/>
       <c r="S341" s="18"/>
       <c r="T341" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="342" spans="1:20" ht="259.5" customHeight="1">
@@ -12193,16 +12251,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D342" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E342" s="13" t="s">
         <v>285</v>
-      </c>
-      <c r="E342" s="13" t="s">
-        <v>286</v>
       </c>
       <c r="F342" s="14"/>
       <c r="G342" s="15"/>
@@ -12219,7 +12277,7 @@
       <c r="R342" s="17"/>
       <c r="S342" s="18"/>
       <c r="T342" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="343" spans="1:20" ht="242.25" customHeight="1">
@@ -12227,16 +12285,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D343" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E343" s="13" t="s">
         <v>287</v>
-      </c>
-      <c r="E343" s="13" t="s">
-        <v>288</v>
       </c>
       <c r="F343" s="14"/>
       <c r="G343" s="15"/>
@@ -12253,7 +12311,7 @@
       <c r="R343" s="17"/>
       <c r="S343" s="18"/>
       <c r="T343" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="344" spans="1:20" ht="242.25" customHeight="1">
@@ -12261,16 +12319,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D344" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E344" s="13" t="s">
         <v>289</v>
-      </c>
-      <c r="E344" s="13" t="s">
-        <v>290</v>
       </c>
       <c r="F344" s="14"/>
       <c r="G344" s="15"/>
@@ -12287,7 +12345,7 @@
       <c r="R344" s="17"/>
       <c r="S344" s="18"/>
       <c r="T344" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="345" spans="1:20" ht="315" customHeight="1">
@@ -12295,16 +12353,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D345" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E345" s="13" t="s">
         <v>291</v>
-      </c>
-      <c r="E345" s="13" t="s">
-        <v>292</v>
       </c>
       <c r="F345" s="14"/>
       <c r="G345" s="15"/>
@@ -12321,7 +12379,7 @@
       <c r="R345" s="17"/>
       <c r="S345" s="18"/>
       <c r="T345" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="346" spans="1:20" ht="259.5" customHeight="1">
@@ -12329,16 +12387,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D346" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E346" s="13" t="s">
         <v>293</v>
-      </c>
-      <c r="E346" s="13" t="s">
-        <v>294</v>
       </c>
       <c r="F346" s="14"/>
       <c r="G346" s="15"/>
@@ -12355,7 +12413,7 @@
       <c r="R346" s="17"/>
       <c r="S346" s="18"/>
       <c r="T346" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="347" spans="1:20" ht="242.25" customHeight="1">
@@ -12363,16 +12421,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D347" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E347" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="E347" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="F347" s="14"/>
       <c r="G347" s="15"/>
@@ -12389,7 +12447,7 @@
       <c r="R347" s="17"/>
       <c r="S347" s="18"/>
       <c r="T347" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="348" spans="1:20" ht="242.25" customHeight="1">
@@ -12397,16 +12455,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D348" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E348" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="E348" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="F348" s="14"/>
       <c r="G348" s="15"/>
@@ -12423,7 +12481,7 @@
       <c r="R348" s="17"/>
       <c r="S348" s="18"/>
       <c r="T348" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="349" spans="1:20" ht="315" customHeight="1">
@@ -12431,16 +12489,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D349" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E349" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="E349" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="F349" s="14"/>
       <c r="G349" s="15"/>
@@ -12457,7 +12515,7 @@
       <c r="R349" s="17"/>
       <c r="S349" s="18"/>
       <c r="T349" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="350" spans="1:20" ht="259.5" customHeight="1">
@@ -12465,16 +12523,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D350" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E350" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="E350" s="13" t="s">
-        <v>302</v>
       </c>
       <c r="F350" s="14"/>
       <c r="G350" s="15"/>
@@ -12491,7 +12549,7 @@
       <c r="R350" s="17"/>
       <c r="S350" s="18"/>
       <c r="T350" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="351" spans="1:20" ht="242.25" customHeight="1">
@@ -12499,16 +12557,16 @@
         <v>344</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D351" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E351" s="13" t="s">
         <v>303</v>
-      </c>
-      <c r="E351" s="13" t="s">
-        <v>304</v>
       </c>
       <c r="F351" s="14"/>
       <c r="G351" s="15"/>
@@ -12525,7 +12583,7 @@
       <c r="R351" s="17"/>
       <c r="S351" s="18"/>
       <c r="T351" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="352" spans="1:20" ht="242.25" customHeight="1">
@@ -12533,16 +12591,16 @@
         <v>345</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D352" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E352" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="E352" s="13" t="s">
-        <v>306</v>
       </c>
       <c r="F352" s="14"/>
       <c r="G352" s="15"/>
@@ -12559,7 +12617,7 @@
       <c r="R352" s="17"/>
       <c r="S352" s="18"/>
       <c r="T352" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="353" spans="1:20" ht="315" customHeight="1">
@@ -12567,16 +12625,16 @@
         <v>346</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D353" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E353" s="13" t="s">
         <v>307</v>
-      </c>
-      <c r="E353" s="13" t="s">
-        <v>308</v>
       </c>
       <c r="F353" s="14"/>
       <c r="G353" s="15"/>
@@ -12593,7 +12651,7 @@
       <c r="R353" s="17"/>
       <c r="S353" s="18"/>
       <c r="T353" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="354" spans="1:20" ht="259.5" customHeight="1">
@@ -12601,16 +12659,16 @@
         <v>347</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D354" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E354" s="13" t="s">
         <v>309</v>
-      </c>
-      <c r="E354" s="13" t="s">
-        <v>310</v>
       </c>
       <c r="F354" s="14"/>
       <c r="G354" s="15"/>
@@ -12627,7 +12685,7 @@
       <c r="R354" s="17"/>
       <c r="S354" s="18"/>
       <c r="T354" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="355" spans="1:20" ht="242.25" customHeight="1">
@@ -12635,16 +12693,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D355" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E355" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="E355" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="F355" s="14"/>
       <c r="G355" s="15"/>
@@ -12661,7 +12719,7 @@
       <c r="R355" s="17"/>
       <c r="S355" s="18"/>
       <c r="T355" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="356" spans="1:20" ht="242.25" customHeight="1">
@@ -12669,16 +12727,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D356" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E356" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="E356" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="F356" s="14"/>
       <c r="G356" s="15"/>
@@ -12695,7 +12753,7 @@
       <c r="R356" s="17"/>
       <c r="S356" s="18"/>
       <c r="T356" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="357" spans="1:20" ht="315" customHeight="1">
@@ -12703,16 +12761,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D357" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E357" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="E357" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="F357" s="14"/>
       <c r="G357" s="15"/>
@@ -12729,7 +12787,7 @@
       <c r="R357" s="17"/>
       <c r="S357" s="18"/>
       <c r="T357" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="358" spans="1:20" ht="259.5" customHeight="1">
@@ -12737,16 +12795,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D358" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E358" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="E358" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="F358" s="14"/>
       <c r="G358" s="15"/>
@@ -12763,7 +12821,7 @@
       <c r="R358" s="17"/>
       <c r="S358" s="18"/>
       <c r="T358" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="359" spans="1:20" ht="249.75" customHeight="1">
@@ -12771,16 +12829,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C359" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D359" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E359" s="13" t="s">
         <v>319</v>
-      </c>
-      <c r="E359" s="13" t="s">
-        <v>320</v>
       </c>
       <c r="F359" s="14"/>
       <c r="G359" s="15"/>
@@ -12797,7 +12855,7 @@
       <c r="R359" s="17"/>
       <c r="S359" s="18"/>
       <c r="T359" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="360" spans="1:20" ht="249.75" customHeight="1">
@@ -12805,16 +12863,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C360" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D360" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E360" s="13" t="s">
         <v>321</v>
-      </c>
-      <c r="E360" s="13" t="s">
-        <v>322</v>
       </c>
       <c r="F360" s="14"/>
       <c r="G360" s="15"/>
@@ -12831,7 +12889,7 @@
       <c r="R360" s="17"/>
       <c r="S360" s="18"/>
       <c r="T360" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="361" spans="1:20" ht="249.75" customHeight="1">
@@ -12839,16 +12897,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D361" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E361" s="13" t="s">
         <v>323</v>
-      </c>
-      <c r="E361" s="13" t="s">
-        <v>324</v>
       </c>
       <c r="F361" s="14"/>
       <c r="G361" s="15"/>
@@ -12865,7 +12923,7 @@
       <c r="R361" s="17"/>
       <c r="S361" s="18"/>
       <c r="T361" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="362" spans="1:20" ht="249.75" customHeight="1">
@@ -12873,16 +12931,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D362" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E362" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="E362" s="13" t="s">
-        <v>326</v>
       </c>
       <c r="F362" s="14"/>
       <c r="G362" s="15"/>
@@ -12899,7 +12957,7 @@
       <c r="R362" s="17"/>
       <c r="S362" s="18"/>
       <c r="T362" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="363" spans="1:20" ht="249.75" customHeight="1">
@@ -12907,16 +12965,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D363" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E363" s="13" t="s">
         <v>327</v>
-      </c>
-      <c r="E363" s="13" t="s">
-        <v>328</v>
       </c>
       <c r="F363" s="14"/>
       <c r="G363" s="15"/>
@@ -12933,7 +12991,7 @@
       <c r="R363" s="17"/>
       <c r="S363" s="18"/>
       <c r="T363" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="364" spans="1:20" ht="249.75" customHeight="1">
@@ -12941,16 +12999,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D364" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E364" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="E364" s="13" t="s">
-        <v>330</v>
       </c>
       <c r="F364" s="14"/>
       <c r="G364" s="15"/>
@@ -12967,7 +13025,7 @@
       <c r="R364" s="17"/>
       <c r="S364" s="18"/>
       <c r="T364" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="365" spans="1:20" ht="249.75" customHeight="1">
@@ -12975,16 +13033,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C365" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D365" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E365" s="13" t="s">
         <v>331</v>
-      </c>
-      <c r="E365" s="13" t="s">
-        <v>332</v>
       </c>
       <c r="F365" s="14"/>
       <c r="G365" s="15"/>
@@ -13001,7 +13059,7 @@
       <c r="R365" s="17"/>
       <c r="S365" s="18"/>
       <c r="T365" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="366" spans="1:20" ht="249.75" customHeight="1">
@@ -13009,16 +13067,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D366" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E366" s="13" t="s">
         <v>333</v>
-      </c>
-      <c r="E366" s="13" t="s">
-        <v>334</v>
       </c>
       <c r="F366" s="14"/>
       <c r="G366" s="15"/>
@@ -13035,7 +13093,7 @@
       <c r="R366" s="17"/>
       <c r="S366" s="18"/>
       <c r="T366" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="367" spans="1:20" ht="249.75" customHeight="1">
@@ -13043,16 +13101,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D367" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E367" s="13" t="s">
         <v>335</v>
-      </c>
-      <c r="E367" s="13" t="s">
-        <v>336</v>
       </c>
       <c r="F367" s="14"/>
       <c r="G367" s="15"/>
@@ -13069,7 +13127,7 @@
       <c r="R367" s="17"/>
       <c r="S367" s="18"/>
       <c r="T367" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="368" spans="1:20" ht="249.75" customHeight="1">
@@ -13077,16 +13135,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D368" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E368" s="13" t="s">
         <v>337</v>
-      </c>
-      <c r="E368" s="13" t="s">
-        <v>338</v>
       </c>
       <c r="F368" s="14"/>
       <c r="G368" s="15"/>
@@ -13103,7 +13161,7 @@
       <c r="R368" s="17"/>
       <c r="S368" s="18"/>
       <c r="T368" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="369" spans="1:20" ht="249.75" customHeight="1">
@@ -13111,16 +13169,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C369" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D369" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E369" s="13" t="s">
         <v>339</v>
-      </c>
-      <c r="E369" s="13" t="s">
-        <v>340</v>
       </c>
       <c r="F369" s="14"/>
       <c r="G369" s="15"/>
@@ -13137,7 +13195,7 @@
       <c r="R369" s="17"/>
       <c r="S369" s="18"/>
       <c r="T369" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="370" spans="1:20" ht="249.75" customHeight="1">
@@ -13145,16 +13203,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D370" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E370" s="13" t="s">
         <v>341</v>
-      </c>
-      <c r="E370" s="13" t="s">
-        <v>342</v>
       </c>
       <c r="F370" s="14"/>
       <c r="G370" s="15"/>
@@ -13171,7 +13229,7 @@
       <c r="R370" s="17"/>
       <c r="S370" s="18"/>
       <c r="T370" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="371" spans="1:20" ht="249.75" customHeight="1">
@@ -13179,16 +13237,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D371" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E371" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="E371" s="13" t="s">
-        <v>344</v>
       </c>
       <c r="F371" s="14"/>
       <c r="G371" s="15"/>
@@ -13205,7 +13263,7 @@
       <c r="R371" s="17"/>
       <c r="S371" s="18"/>
       <c r="T371" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="372" spans="1:20" ht="249.75" customHeight="1">
@@ -13213,16 +13271,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D372" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E372" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="E372" s="13" t="s">
-        <v>346</v>
       </c>
       <c r="F372" s="14"/>
       <c r="G372" s="15"/>
@@ -13239,7 +13297,7 @@
       <c r="R372" s="17"/>
       <c r="S372" s="18"/>
       <c r="T372" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="373" spans="1:20" ht="249.75" customHeight="1">
@@ -13247,16 +13305,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C373" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D373" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E373" s="13" t="s">
         <v>347</v>
-      </c>
-      <c r="E373" s="13" t="s">
-        <v>348</v>
       </c>
       <c r="F373" s="14"/>
       <c r="G373" s="15"/>
@@ -13273,7 +13331,7 @@
       <c r="R373" s="17"/>
       <c r="S373" s="18"/>
       <c r="T373" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="374" spans="1:20" ht="249.75" customHeight="1">
@@ -13281,16 +13339,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D374" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E374" s="13" t="s">
         <v>349</v>
-      </c>
-      <c r="E374" s="13" t="s">
-        <v>350</v>
       </c>
       <c r="F374" s="14"/>
       <c r="G374" s="15"/>
@@ -13307,7 +13365,7 @@
       <c r="R374" s="17"/>
       <c r="S374" s="18"/>
       <c r="T374" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="375" spans="1:20" ht="14.25" customHeight="1">
@@ -13321,10 +13379,10 @@
         <v>22</v>
       </c>
       <c r="D375" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E375" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="E375" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="F375" s="14"/>
       <c r="G375" s="15"/>
@@ -13341,7 +13399,7 @@
       <c r="R375" s="17"/>
       <c r="S375" s="18"/>
       <c r="T375" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="376" spans="1:20" ht="14.25" customHeight="1">
@@ -13352,13 +13410,13 @@
         <v>21</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D376" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E376" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="E376" s="13" t="s">
-        <v>354</v>
       </c>
       <c r="F376" s="14"/>
       <c r="G376" s="15"/>
@@ -13375,7 +13433,7 @@
       <c r="R376" s="17"/>
       <c r="S376" s="18"/>
       <c r="T376" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="377" spans="1:20" ht="14.25" customHeight="1">
@@ -13386,13 +13444,13 @@
         <v>21</v>
       </c>
       <c r="C377" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D377" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E377" s="13" t="s">
         <v>355</v>
-      </c>
-      <c r="E377" s="13" t="s">
-        <v>356</v>
       </c>
       <c r="F377" s="14"/>
       <c r="G377" s="15"/>
@@ -13409,7 +13467,7 @@
       <c r="R377" s="17"/>
       <c r="S377" s="18"/>
       <c r="T377" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="378" spans="1:20" ht="14.25" customHeight="1">
@@ -13420,13 +13478,13 @@
         <v>21</v>
       </c>
       <c r="C378" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D378" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E378" s="13" t="s">
         <v>357</v>
-      </c>
-      <c r="E378" s="13" t="s">
-        <v>358</v>
       </c>
       <c r="F378" s="14"/>
       <c r="G378" s="15"/>
@@ -13443,7 +13501,7 @@
       <c r="R378" s="17"/>
       <c r="S378" s="18"/>
       <c r="T378" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="379" spans="1:20" ht="14.25" customHeight="1">
@@ -13454,13 +13512,13 @@
         <v>21</v>
       </c>
       <c r="C379" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D379" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E379" s="13" t="s">
         <v>359</v>
-      </c>
-      <c r="E379" s="13" t="s">
-        <v>360</v>
       </c>
       <c r="F379" s="14"/>
       <c r="G379" s="15"/>
@@ -13477,7 +13535,7 @@
       <c r="R379" s="17"/>
       <c r="S379" s="18"/>
       <c r="T379" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="380" spans="1:20" ht="14.25" customHeight="1">
@@ -13488,13 +13546,13 @@
         <v>21</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D380" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E380" s="13" t="s">
         <v>361</v>
-      </c>
-      <c r="E380" s="13" t="s">
-        <v>362</v>
       </c>
       <c r="F380" s="14"/>
       <c r="G380" s="15"/>
@@ -13511,7 +13569,7 @@
       <c r="R380" s="17"/>
       <c r="S380" s="18"/>
       <c r="T380" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="381" spans="1:20" ht="14.25" customHeight="1">
@@ -13522,13 +13580,13 @@
         <v>21</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D381" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="E381" s="13" t="s">
         <v>363</v>
-      </c>
-      <c r="E381" s="13" t="s">
-        <v>364</v>
       </c>
       <c r="F381" s="14"/>
       <c r="G381" s="15"/>
@@ -13545,7 +13603,7 @@
       <c r="R381" s="17"/>
       <c r="S381" s="18"/>
       <c r="T381" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="382" spans="1:20" ht="14.25" customHeight="1">
@@ -13556,13 +13614,13 @@
         <v>21</v>
       </c>
       <c r="C382" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D382" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E382" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="E382" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="F382" s="14"/>
       <c r="G382" s="15"/>
@@ -13579,7 +13637,7 @@
       <c r="R382" s="17"/>
       <c r="S382" s="18"/>
       <c r="T382" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="383" spans="1:20" ht="14.25" customHeight="1">
@@ -13593,10 +13651,10 @@
         <v>22</v>
       </c>
       <c r="D383" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E383" s="13" t="s">
         <v>367</v>
-      </c>
-      <c r="E383" s="13" t="s">
-        <v>368</v>
       </c>
       <c r="F383" s="14"/>
       <c r="G383" s="15"/>
@@ -13613,7 +13671,7 @@
       <c r="R383" s="17"/>
       <c r="S383" s="18"/>
       <c r="T383" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="384" spans="1:20" ht="14.25" customHeight="1">
@@ -18279,8 +18337,8 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -18325,18 +18383,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69AC936-16CE-4FEF-8FE5-B538A37A57B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B017C260-5077-45F8-AB56-9FE194F45B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27195" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2065,15 +2065,6 @@
     <t>VALIDAZIONE_CDA2_PSS_CT0_OK</t>
   </si>
   <si>
-    <t>2024-05-13T18:02:21Z</t>
-  </si>
-  <si>
-    <t>bc2ad7e437c07d5a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.2316f47ba1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-05-27T09:27:33Z</t>
   </si>
   <si>
@@ -2081,6 +2072,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.883b8fafb4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-27T09:51:50Z</t>
+  </si>
+  <si>
+    <t>14c7c45a695ea74d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.c718f57369^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2387,6 +2387,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2408,9 +2411,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2708,10 +2708,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2721,7 +2721,8 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="63.85546875" customWidth="1"/>
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
-    <col min="6" max="9" width="33.140625" customWidth="1"/>
+    <col min="6" max="8" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="59.85546875" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
     <col min="16" max="16" width="27.140625" customWidth="1"/>
@@ -2749,12 +2750,12 @@
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="26"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2772,14 +2773,14 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2797,12 +2798,12 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="33" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2821,12 +2822,12 @@
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2844,8 +2845,8 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="7"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2981,14 +2982,14 @@
       <c r="F10" s="14">
         <v>45439</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>382</v>
+      <c r="G10" s="22" t="s">
+        <v>379</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>32</v>
@@ -3025,14 +3026,14 @@
       <c r="F11" s="14">
         <v>45439</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>379</v>
+      <c r="G11" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>32</v>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B017C260-5077-45F8-AB56-9FE194F45B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C1BE64-DC99-467F-8949-E9F4AB959BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27195" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="405">
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
   </si>
@@ -2081,6 +2081,66 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.c718f57369^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT1_OK</t>
+  </si>
+  <si>
+    <t>2024-05-27T13:24:15Z</t>
+  </si>
+  <si>
+    <t>11f2211583481162</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.82a3a28863^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f328cc8a7075db0e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.ee11b222ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-27T13:32:34Z</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT2_OK</t>
+  </si>
+  <si>
+    <t>2024-05-27T14:21:06Z</t>
+  </si>
+  <si>
+    <t>361474fd728d3c48</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.765e51a48e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-27T14:28:06Z</t>
+  </si>
+  <si>
+    <t>2041d21ff7b798da</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT3_OK</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.d8b25e0efd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-27T14:56:11Z</t>
+  </si>
+  <si>
+    <t>1cd11766819a3087</t>
+  </si>
+  <si>
+    <t>2024-05-27T15:01:02Z</t>
+  </si>
+  <si>
+    <t>4db84bfa407b98a5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.a5cb5029e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2708,10 +2768,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3052,16 +3112,34 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="11">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="F12" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -3076,16 +3154,34 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="11">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="F13" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -3100,16 +3196,34 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="11">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>392</v>
+      </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="F14" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -3124,16 +3238,34 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="11">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>392</v>
+      </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="F15" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -3148,16 +3280,34 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="11">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>398</v>
+      </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="F16" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3172,16 +3322,34 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="11">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>398</v>
+      </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="F17" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -18347,13 +18515,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J36 L10:M36 O10:O36 J38 L38:M38 O38 J40:J44 L40:M44 O40:O44 J46 L46:M46 O46 J48:J52 L48:M52 O48:O52 J54:J198 L54:M198 O54:O198 J375:J383 L375:M383 O375:O383</xm:sqref>
+          <xm:sqref>O375:O383 J38 L38:M38 O38 J40:J44 L40:M44 O40:O44 J46 L46:M46 O46 J48:J52 L48:M52 O48:O52 J54:J198 L54:M198 O54:O198 J375:J383 L375:M383 J10:J36 L10:M36 O10:O36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q10:Q36 Q38 Q40:Q44 Q46 Q48:Q52 Q54:Q198 Q375:Q383</xm:sqref>
+          <xm:sqref>Q375:Q383 Q38 Q40:Q44 Q46 Q48:Q52 Q54:Q198 Q10:Q36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C1BE64-DC99-467F-8949-E9F4AB959BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2DC6DA-CAB4-4D5C-9220-5C0E97494F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27195" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="404">
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
   </si>
@@ -2125,22 +2125,19 @@
     <t>VALIDAZIONE_CDA2_PSS_CT3_OK</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.d8b25e0efd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-27T14:56:11Z</t>
-  </si>
-  <si>
-    <t>1cd11766819a3087</t>
-  </si>
-  <si>
-    <t>2024-05-27T15:01:02Z</t>
-  </si>
-  <si>
-    <t>4db84bfa407b98a5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.a5cb5029e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>94a8acce13f7fe22</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.96428ff138^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-27T16:02:15Z</t>
+  </si>
+  <si>
+    <t>2024-05-27T16:06:49Z</t>
+  </si>
+  <si>
+    <t>835a9c99f49de813</t>
   </si>
 </sst>
 </file>
@@ -2768,10 +2765,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3297,13 +3294,13 @@
         <v>45439</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>32</v>
@@ -3339,13 +3336,13 @@
         <v>45439</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>400</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>399</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>32</v>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2DC6DA-CAB4-4D5C-9220-5C0E97494F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D785E5AF-EA41-4211-915E-13B9B6E804F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27195" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="20220" windowHeight="9615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="410">
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
   </si>
@@ -2138,6 +2138,24 @@
   </si>
   <si>
     <t>835a9c99f49de813</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT4_OK</t>
+  </si>
+  <si>
+    <t>aab0942019b7cbd4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.d702c3ecc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-28T08:31:32Z</t>
+  </si>
+  <si>
+    <t>a0784624a4fa6ce3</t>
+  </si>
+  <si>
+    <t>2024-05-28T08:34:23Z</t>
   </si>
 </sst>
 </file>
@@ -2765,10 +2783,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3361,16 +3379,34 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="11">
+        <v>9</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>404</v>
+      </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="F18" s="14">
+        <v>45440</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3385,16 +3421,34 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="11">
+        <v>10</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>404</v>
+      </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="F19" s="14">
+        <v>45440</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D785E5AF-EA41-4211-915E-13B9B6E804F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19093D55-689A-47EC-B42A-EB84108EA24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="20220" windowHeight="9615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="2265" windowWidth="20220" windowHeight="9615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$383</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="446">
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
   </si>
@@ -2146,6 +2146,9 @@
     <t>aab0942019b7cbd4</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.d702c3ecc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -2156,6 +2159,111 @@
   </si>
   <si>
     <t>2024-05-28T08:34:23Z</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT5_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT6_KO</t>
+  </si>
+  <si>
+    <t>L'applicazione gestisce confidentialityCode = N,V</t>
+  </si>
+  <si>
+    <t>L'applicazione nel momento dell'inserimento del codice fiscale automaticamente lo trasforma in maiuscolo</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT7_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT8_KO</t>
+  </si>
+  <si>
+    <t>36cf91a15d8ac09c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.d0edf3ec1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-28T14:18:45Z</t>
+  </si>
+  <si>
+    <t>Errore semantico "[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]"</t>
+  </si>
+  <si>
+    <t>L’errore viene segnalato a video all’utente finale, che procederà all'inserimento del dato mancante</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT9_KO</t>
+  </si>
+  <si>
+    <t>fc3aa6cadcdbc75f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.c459c96db6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-28T14:46:29Z</t>
+  </si>
+  <si>
+    <t>Errore semantico "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']"</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT11_KO</t>
+  </si>
+  <si>
+    <t>L'applicazione non permette di inserire un paziente senza indicare il sesso</t>
+  </si>
+  <si>
+    <t>L'applicazione non gestisce questa sezione</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT12_KO</t>
+  </si>
+  <si>
+    <t>L'applicazione non permette il verificarsi di questa situazione</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT13_KO</t>
+  </si>
+  <si>
+    <t>2024-05-28T15:36:14Z</t>
+  </si>
+  <si>
+    <t>f98a8c0a1a33a601</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.02f3ff0bd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore semantico. "[ERROR-50| Il valore dell'elemento effectiveTime/high : '20240528000000+0200' deve essere maggiore o uguale di quello di effectiveTime/low : '20240528173557+0200'.]"</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT19_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT21_KO</t>
   </si>
 </sst>
 </file>
@@ -2783,10 +2891,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2800,7 +2908,7 @@
     <col min="9" max="9" width="59.85546875" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="16" max="16" width="62.5703125" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="20" width="31.85546875" customWidth="1"/>
@@ -3396,13 +3504,13 @@
         <v>45440</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>405</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>32</v>
@@ -3438,13 +3546,13 @@
         <v>45440</v>
       </c>
       <c r="G19" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>408</v>
-      </c>
       <c r="I19" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>32</v>
@@ -3463,17 +3571,37 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="11">
+        <v>11</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>411</v>
+      </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="F20" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>413</v>
+      </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
@@ -3483,45 +3611,81 @@
       <c r="R20" s="17"/>
       <c r="S20" s="18"/>
       <c r="T20" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="11">
+        <v>12</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>412</v>
+      </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="F21" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>414</v>
+      </c>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+      <c r="N21" s="16" t="s">
+        <v>406</v>
+      </c>
       <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+      <c r="P21" s="16" t="s">
+        <v>406</v>
+      </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
       <c r="T21" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="11">
+        <v>13</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>415</v>
+      </c>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="J22" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>413</v>
+      </c>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
@@ -3531,69 +3695,137 @@
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
       <c r="T22" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="11">
+        <v>14</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>416</v>
+      </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="F23" s="14">
+        <v>45440</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
+      <c r="L23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>421</v>
+      </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
       <c r="T23" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="A24" s="11">
+        <v>15</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>422</v>
+      </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="F24" s="14">
+        <v>45440</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
+      <c r="L24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>421</v>
+      </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
       <c r="T24" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="11">
+        <v>16</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>427</v>
+      </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
+      <c r="J25" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>429</v>
+      </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
@@ -3603,21 +3835,33 @@
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
       <c r="T25" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="11">
+        <v>17</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>428</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="J26" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>430</v>
+      </c>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
@@ -3627,21 +3871,33 @@
       <c r="R26" s="17"/>
       <c r="S26" s="18"/>
       <c r="T26" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="11">
+        <v>18</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>431</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+      <c r="J27" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
@@ -3651,21 +3907,33 @@
       <c r="R27" s="17"/>
       <c r="S27" s="18"/>
       <c r="T27" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="11">
+        <v>19</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>433</v>
+      </c>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="J28" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
@@ -3675,21 +3943,33 @@
       <c r="R28" s="17"/>
       <c r="S28" s="18"/>
       <c r="T28" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="11">
+        <v>20</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="E29" s="13"/>
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="J29" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
@@ -3699,45 +3979,85 @@
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
       <c r="T29" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="11">
+        <v>21</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
+      <c r="F30" s="14">
+        <v>45440</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
+      <c r="L30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>421</v>
+      </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
       <c r="T30" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="11">
+        <v>22</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>440</v>
+      </c>
       <c r="E31" s="13"/>
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
+      <c r="J31" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
@@ -3747,21 +4067,33 @@
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
       <c r="T31" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A32" s="11">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>441</v>
+      </c>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
+      <c r="J32" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
@@ -3771,21 +4103,33 @@
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
       <c r="T32" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="11">
+        <v>24</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>442</v>
+      </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="J33" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
@@ -3795,21 +4139,33 @@
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
       <c r="T33" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="11">
+        <v>25</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>443</v>
+      </c>
       <c r="E34" s="13"/>
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="J34" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
@@ -3819,21 +4175,33 @@
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
       <c r="T34" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="11">
+        <v>26</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>444</v>
+      </c>
       <c r="E35" s="13"/>
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="J35" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
@@ -3847,17 +4215,29 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="11">
+        <v>27</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>445</v>
+      </c>
       <c r="E36" s="13"/>
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="J36" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
@@ -18566,7 +18946,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O375:O383 J38 L38:M38 O38 J40:J44 L40:M44 O40:O44 J46 L46:M46 O46 J48:J52 L48:M52 O48:O52 J54:J198 L54:M198 O54:O198 J375:J383 L375:M383 J10:J36 L10:M36 O10:O36</xm:sqref>
+          <xm:sqref>O375:O383 J38 L38:M38 O38 J40:J44 L40:M44 O40:O44 J46 L46:M46 O46 J48:J52 L48:M52 O48:O52 J54:J198 L54:M198 O54:O198 J375:J383 L375:M383 O22:O36 L10:M36 O10:O19 J10:J36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Dropbox\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40CE7F-C317-4CD9-BB2A-D2ED00C78D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21BEE92-4359-4A5C-9640-806E04316E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="0" windowWidth="14235" windowHeight="13350" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27195" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="892">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4644,18 +4644,6 @@
     <t>L’errore viene segnalato a video all’utente finale, che procederà all'inserimento del dato mancante</t>
   </si>
   <si>
-    <t>2024-05-28T14:46:29Z</t>
-  </si>
-  <si>
-    <t>fc3aa6cadcdbc75f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.c459c96db6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore semantico "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']"</t>
-  </si>
-  <si>
     <t>L'applicazione non permette di inserire un paziente senza indicare il sesso</t>
   </si>
   <si>
@@ -4711,6 +4699,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.c718f57369^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -5130,6 +5121,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -5147,16 +5148,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7618,10 +7609,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="Q37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E374" sqref="E374"/>
+      <selection pane="bottomRight" activeCell="P185" sqref="P185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7659,12 +7650,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7682,14 +7673,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="46" t="s">
         <v>849</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="38"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7707,12 +7698,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="42" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="46" t="s">
         <v>850</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7731,12 +7722,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
         <v>851</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="38"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7754,8 +7745,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -13930,36 +13921,22 @@
       <c r="E185" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="F185" s="23">
-        <v>45440</v>
-      </c>
-      <c r="G185" s="24" t="s">
-        <v>872</v>
-      </c>
+      <c r="F185" s="23"/>
+      <c r="G185" s="24"/>
       <c r="H185" s="24" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="I185" s="24" t="s">
-        <v>874</v>
-      </c>
-      <c r="J185" s="25" t="s">
-        <v>139</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="J185" s="25"/>
       <c r="K185" s="25"/>
-      <c r="L185" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="M185" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N185" s="25" t="s">
-        <v>875</v>
-      </c>
-      <c r="O185" s="25" t="s">
-        <v>848</v>
-      </c>
+      <c r="L185" s="25"/>
+      <c r="M185" s="25"/>
+      <c r="N185" s="25"/>
+      <c r="O185" s="25"/>
       <c r="P185" s="25" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="Q185" s="25"/>
       <c r="R185" s="26"/>
@@ -13992,7 +13969,7 @@
         <v>848</v>
       </c>
       <c r="K186" s="25" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="L186" s="25"/>
       <c r="M186" s="25"/>
@@ -14030,7 +14007,7 @@
         <v>848</v>
       </c>
       <c r="K187" s="25" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="L187" s="25"/>
       <c r="M187" s="25"/>
@@ -14068,7 +14045,7 @@
         <v>848</v>
       </c>
       <c r="K188" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L188" s="25"/>
       <c r="M188" s="25"/>
@@ -14106,7 +14083,7 @@
         <v>848</v>
       </c>
       <c r="K189" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L189" s="25"/>
       <c r="M189" s="25"/>
@@ -14144,7 +14121,7 @@
         <v>848</v>
       </c>
       <c r="K190" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L190" s="25"/>
       <c r="M190" s="25"/>
@@ -14178,13 +14155,13 @@
         <v>45440</v>
       </c>
       <c r="G191" s="24" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="H191" s="24" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I191" s="24" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="J191" s="25" t="s">
         <v>139</v>
@@ -14197,7 +14174,7 @@
         <v>139</v>
       </c>
       <c r="N191" s="25" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="O191" s="25" t="s">
         <v>848</v>
@@ -14236,7 +14213,7 @@
         <v>848</v>
       </c>
       <c r="K192" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L192" s="25"/>
       <c r="M192" s="25"/>
@@ -14274,7 +14251,7 @@
         <v>848</v>
       </c>
       <c r="K193" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L193" s="25"/>
       <c r="M193" s="25"/>
@@ -14312,7 +14289,7 @@
         <v>848</v>
       </c>
       <c r="K194" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L194" s="25"/>
       <c r="M194" s="25"/>
@@ -14350,7 +14327,7 @@
         <v>848</v>
       </c>
       <c r="K195" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L195" s="25"/>
       <c r="M195" s="25"/>
@@ -14388,7 +14365,7 @@
         <v>848</v>
       </c>
       <c r="K196" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L196" s="25"/>
       <c r="M196" s="25"/>
@@ -14426,7 +14403,7 @@
         <v>848</v>
       </c>
       <c r="K197" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L197" s="25"/>
       <c r="M197" s="25"/>
@@ -18302,13 +18279,13 @@
         <v>45439</v>
       </c>
       <c r="G311" s="24" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="H311" s="24" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I311" s="24" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="J311" s="25" t="s">
         <v>139</v>
@@ -18482,10 +18459,10 @@
         <v>45439</v>
       </c>
       <c r="G316" s="24" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H316" s="24" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="I316" s="24" t="s">
         <v>858</v>
@@ -18526,10 +18503,10 @@
         <v>45439</v>
       </c>
       <c r="G317" s="24" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="H317" s="24" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="I317" s="24" t="s">
         <v>861</v>
@@ -18570,10 +18547,10 @@
         <v>45440</v>
       </c>
       <c r="G318" s="24" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="H318" s="24" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="I318" s="24" t="s">
         <v>864</v>
@@ -20755,14 +20732,14 @@
       <c r="F382" s="23">
         <v>45439</v>
       </c>
-      <c r="G382" s="45" t="s">
-        <v>892</v>
-      </c>
-      <c r="H382" s="46" t="s">
-        <v>893</v>
-      </c>
-      <c r="I382" s="46" t="s">
-        <v>894</v>
+      <c r="G382" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="H382" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="I382" s="34" t="s">
+        <v>890</v>
       </c>
       <c r="J382" s="25" t="s">
         <v>139</v>
@@ -25492,7 +25469,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J36 L10:M36 O10:O36 J38 L38:M38 O38 J40:J44 L40:M44 O40:O44 J46 L46:M46 O46 J48:J52 L48:M52 O48:O52 J54:J198 L54:M198 O54:O198 J375:J383 L375:M383 O375:O383</xm:sqref>
+          <xm:sqref>J10:J36 L10:M36 O10:O36 J38 L38:M38 O38 J40:J44 L40:M44 O40:O44 J46 L46:M46 O46 J48:J52 L48:M52 O48:O52 O375:O383 J186:J198 L186:M198 J375:J383 L375:M383 J54:J184 L54:M184 O54:O198</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Dropbox\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21BEE92-4359-4A5C-9640-806E04316E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFBCF65-C325-4C66-A78D-287A36D35435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27195" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="895">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4701,7 +4701,16 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.c718f57369^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>ba92278e4da59874</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.daaabda70a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-29T13:31:24Z</t>
+  </si>
+  <si>
+    <t>Errore semantico "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']"</t>
   </si>
 </sst>
 </file>
@@ -7609,7 +7618,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="Q37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="P185" sqref="P185"/>
@@ -13921,22 +13930,36 @@
       <c r="E185" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="F185" s="23"/>
-      <c r="G185" s="24"/>
+      <c r="F185" s="23">
+        <v>45441</v>
+      </c>
+      <c r="G185" s="24" t="s">
+        <v>893</v>
+      </c>
       <c r="H185" s="24" t="s">
         <v>891</v>
       </c>
       <c r="I185" s="24" t="s">
-        <v>891</v>
-      </c>
-      <c r="J185" s="25"/>
+        <v>892</v>
+      </c>
+      <c r="J185" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="K185" s="25"/>
-      <c r="L185" s="25"/>
-      <c r="M185" s="25"/>
-      <c r="N185" s="25"/>
-      <c r="O185" s="25"/>
+      <c r="L185" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="M185" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N185" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="O185" s="25" t="s">
+        <v>848</v>
+      </c>
       <c r="P185" s="25" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="Q185" s="25"/>
       <c r="R185" s="26"/>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Dropbox\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFBCF65-C325-4C66-A78D-287A36D35435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC33376-7118-4F39-B7CF-4D1ACA00DAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27195" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="904">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4711,6 +4711,33 @@
   </si>
   <si>
     <t>Errore semantico "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']"</t>
+  </si>
+  <si>
+    <t>61b144331492685f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.99f0d2cf14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-29T14:03:00Z</t>
+  </si>
+  <si>
+    <t>dfc91c0c4ecc91c6</t>
+  </si>
+  <si>
+    <t>7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.030f411931^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-29T14:10:18Z</t>
+  </si>
+  <si>
+    <t>46d12520ed02cc27</t>
+  </si>
+  <si>
+    <t>7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.2682931020^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-29T14:16:07Z</t>
   </si>
 </sst>
 </file>
@@ -7618,10 +7645,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C326" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P185" sqref="P185"/>
+      <selection pane="bottomRight" activeCell="E355" sqref="E355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18342,11 +18369,21 @@
       <c r="E312" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="F312" s="23"/>
-      <c r="G312" s="24"/>
-      <c r="H312" s="24"/>
-      <c r="I312" s="24"/>
-      <c r="J312" s="25"/>
+      <c r="F312" s="23">
+        <v>45441</v>
+      </c>
+      <c r="G312" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="H312" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="I312" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="J312" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="K312" s="25"/>
       <c r="L312" s="25"/>
       <c r="M312" s="25"/>
@@ -18376,11 +18413,21 @@
       <c r="E313" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="F313" s="23"/>
-      <c r="G313" s="24"/>
-      <c r="H313" s="24"/>
-      <c r="I313" s="24"/>
-      <c r="J313" s="25"/>
+      <c r="F313" s="23">
+        <v>45441</v>
+      </c>
+      <c r="G313" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="H313" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="I313" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="J313" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="K313" s="25"/>
       <c r="L313" s="25"/>
       <c r="M313" s="25"/>
@@ -18410,11 +18457,21 @@
       <c r="E314" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="F314" s="23"/>
-      <c r="G314" s="24"/>
-      <c r="H314" s="24"/>
-      <c r="I314" s="24"/>
-      <c r="J314" s="25"/>
+      <c r="F314" s="23">
+        <v>45441</v>
+      </c>
+      <c r="G314" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="H314" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="I314" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="J314" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="K314" s="25"/>
       <c r="L314" s="25"/>
       <c r="M314" s="25"/>
@@ -18444,11 +18501,21 @@
       <c r="E315" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="F315" s="23"/>
-      <c r="G315" s="24"/>
-      <c r="H315" s="24"/>
-      <c r="I315" s="24"/>
-      <c r="J315" s="25"/>
+      <c r="F315" s="23">
+        <v>45441</v>
+      </c>
+      <c r="G315" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="H315" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="I315" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="J315" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="K315" s="25"/>
       <c r="L315" s="25"/>
       <c r="M315" s="25"/>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Dropbox\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC33376-7118-4F39-B7CF-4D1ACA00DAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E020C028-1275-4A97-AE0F-9D29E81C6C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27195" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="904">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -7645,10 +7645,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C326" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F326" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E355" sqref="E355"/>
+      <selection pane="bottomRight" activeCell="L355" sqref="L355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18851,8 +18851,12 @@
       <c r="G324" s="24"/>
       <c r="H324" s="24"/>
       <c r="I324" s="24"/>
-      <c r="J324" s="25"/>
-      <c r="K324" s="25"/>
+      <c r="J324" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="K324" s="25" t="s">
+        <v>874</v>
+      </c>
       <c r="L324" s="25"/>
       <c r="M324" s="25"/>
       <c r="N324" s="25"/>
@@ -19905,8 +19909,12 @@
       <c r="G355" s="24"/>
       <c r="H355" s="24"/>
       <c r="I355" s="24"/>
-      <c r="J355" s="25"/>
-      <c r="K355" s="25"/>
+      <c r="J355" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="K355" s="25" t="s">
+        <v>874</v>
+      </c>
       <c r="L355" s="25"/>
       <c r="M355" s="25"/>
       <c r="N355" s="25"/>
@@ -20007,8 +20015,12 @@
       <c r="G358" s="24"/>
       <c r="H358" s="24"/>
       <c r="I358" s="24"/>
-      <c r="J358" s="25"/>
-      <c r="K358" s="25"/>
+      <c r="J358" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="K358" s="25" t="s">
+        <v>874</v>
+      </c>
       <c r="L358" s="25"/>
       <c r="M358" s="25"/>
       <c r="N358" s="25"/>
@@ -20517,8 +20529,12 @@
       <c r="G373" s="24"/>
       <c r="H373" s="24"/>
       <c r="I373" s="24"/>
-      <c r="J373" s="25"/>
-      <c r="K373" s="25"/>
+      <c r="J373" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="K373" s="25" t="s">
+        <v>874</v>
+      </c>
       <c r="L373" s="25"/>
       <c r="M373" s="25"/>
       <c r="N373" s="25"/>
@@ -20551,8 +20567,12 @@
       <c r="G374" s="24"/>
       <c r="H374" s="24"/>
       <c r="I374" s="24"/>
-      <c r="J374" s="25"/>
-      <c r="K374" s="25"/>
+      <c r="J374" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="K374" s="25" t="s">
+        <v>874</v>
+      </c>
       <c r="L374" s="25"/>
       <c r="M374" s="25"/>
       <c r="N374" s="25"/>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Dropbox\Sviluppo\FSE\Test x validazione\Validazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E020C028-1275-4A97-AE0F-9D29E81C6C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B934F1-5420-4863-89E0-95A02070598A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27195" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21720" windowHeight="10668" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="904">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -5482,10 +5482,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="130.140625" customWidth="1"/>
-    <col min="2" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="130.109375" customWidth="1"/>
+    <col min="2" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
@@ -6546,11 +6546,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="194.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="194.109375" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -6622,7 +6622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
+    <row r="11" spans="1:2" ht="43.2">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -7645,26 +7645,26 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F326" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L355" sqref="L355"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.85546875" customWidth="1"/>
-    <col min="6" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
-    <col min="17" max="17" width="33.140625" customWidth="1"/>
-    <col min="18" max="18" width="36.42578125" customWidth="1"/>
-    <col min="19" max="20" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="5" max="5" width="104.88671875" customWidth="1"/>
+    <col min="6" max="9" width="33.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="11" max="15" width="36.44140625" customWidth="1"/>
+    <col min="16" max="16" width="27.109375" customWidth="1"/>
+    <col min="17" max="17" width="33.109375" customWidth="1"/>
+    <col min="18" max="18" width="36.44140625" customWidth="1"/>
+    <col min="19" max="20" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -8837,7 +8837,9 @@
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
+      <c r="J37" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
@@ -9109,7 +9111,9 @@
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
-      <c r="J45" s="25"/>
+      <c r="J45" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
@@ -9387,7 +9391,9 @@
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
-      <c r="J53" s="25"/>
+      <c r="J53" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
@@ -25602,13 +25608,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="4" width="102" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -25695,7 +25701,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="14.4">
       <c r="A7" s="11" t="s">
         <v>93</v>
       </c>
@@ -25709,7 +25715,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="14.4">
       <c r="A8" s="11" t="s">
         <v>112</v>
       </c>
@@ -25723,7 +25729,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="14.4">
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
@@ -25737,7 +25743,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="43.2">
       <c r="A10" s="11" t="s">
         <v>814</v>
       </c>
@@ -27273,11 +27279,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B934F1-5420-4863-89E0-95A02070598A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4259C4-E379-402C-9735-65FC9F4B2908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21720" windowHeight="10668" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="906">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4738,6 +4738,12 @@
   </si>
   <si>
     <t>2024-05-29T14:16:07Z</t>
+  </si>
+  <si>
+    <t>L’errore viene segnalato a video all’utente finale, che se il programma persiste chiamerà help-desk</t>
+  </si>
+  <si>
+    <t>Recupero certificati di firma e/o di autorizzazione, non riuscito riprovare più tardi. Se dovesse persistere chiamare help-desk</t>
   </si>
 </sst>
 </file>
@@ -7645,10 +7651,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="P37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8841,11 +8847,21 @@
         <v>139</v>
       </c>
       <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
+      <c r="L37" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="O37" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="P37" s="25" t="s">
+        <v>904</v>
+      </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="26"/>
       <c r="S37" s="27"/>
@@ -9115,11 +9131,21 @@
         <v>139</v>
       </c>
       <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
+      <c r="L45" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="M45" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N45" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="O45" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="P45" s="25" t="s">
+        <v>904</v>
+      </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="26"/>
       <c r="S45" s="27"/>
@@ -9395,8 +9421,12 @@
         <v>139</v>
       </c>
       <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
+      <c r="L53" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="M53" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="N53" s="25" t="s">
         <v>852</v>
       </c>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4259C4-E379-402C-9735-65FC9F4B2908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4353F817-4D59-47D5-AC63-2994CCFCBBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21720" windowHeight="10668" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="909">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4744,6 +4744,15 @@
   </si>
   <si>
     <t>Recupero certificati di firma e/o di autorizzazione, non riuscito riprovare più tardi. Se dovesse persistere chiamare help-desk</t>
+  </si>
+  <si>
+    <t>2024-06-03T06:50:08Z</t>
+  </si>
+  <si>
+    <t>65d6b4483615fde2</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
 </sst>
 </file>
@@ -7654,7 +7663,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="P37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8839,10 +8848,18 @@
       <c r="E37" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="F37" s="23">
+        <v>45446</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>908</v>
+      </c>
       <c r="J37" s="25" t="s">
         <v>139</v>
       </c>
@@ -9123,10 +9140,18 @@
       <c r="E45" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+      <c r="F45" s="23">
+        <v>45446</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>908</v>
+      </c>
       <c r="J45" s="25" t="s">
         <v>139</v>
       </c>
@@ -9431,7 +9456,9 @@
         <v>852</v>
       </c>
       <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
+      <c r="P53" s="25" t="s">
+        <v>904</v>
+      </c>
       <c r="Q53" s="25"/>
       <c r="R53" s="26" t="s">
         <v>139</v>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4353F817-4D59-47D5-AC63-2994CCFCBBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DCB06D-D09E-41BF-B010-3B1EAACC5836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21720" windowHeight="10668" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="910">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4578,48 +4578,15 @@
     <t>subject_application_id: Tserve</t>
   </si>
   <si>
-    <t>subject_application_vendor: TS23</t>
-  </si>
-  <si>
-    <t>subject_application_version: 1.4.46.0</t>
-  </si>
-  <si>
     <t>Problemi nel collegamento riprovare più tardi. Se dovesse persistere chiamare help-desk</t>
   </si>
   <si>
-    <t>2024-05-27T13:32:34Z</t>
-  </si>
-  <si>
-    <t>f328cc8a7075db0e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.ee11b222ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-27T14:21:06Z</t>
-  </si>
-  <si>
-    <t>361474fd728d3c48</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.765e51a48e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-05-27T16:02:15Z</t>
-  </si>
-  <si>
-    <t>94a8acce13f7fe22</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.96428ff138^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-05-28T08:31:32Z</t>
-  </si>
-  <si>
-    <t>aab0942019b7cbd4</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.d702c3ecc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -4753,6 +4720,42 @@
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>subject_application_version: 1.4.44</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: TS23 di Laura Livolsi</t>
+  </si>
+  <si>
+    <t>L'applicazione gestisce tutte le parti obbligatorie e in parte quelle opzionali</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:07:34Z</t>
+  </si>
+  <si>
+    <t>3ec958b83713df1b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.42f0a8d6b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:28:56Z</t>
+  </si>
+  <si>
+    <t>3616b6c7ca3333fc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.e8e71a0aee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:35:59Z</t>
+  </si>
+  <si>
+    <t>9a697807a495ad4c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.30302dacd1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7660,10 +7663,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="P37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -7752,7 +7755,7 @@
       <c r="A4" s="42"/>
       <c r="B4" s="43"/>
       <c r="C4" s="46" t="s">
-        <v>850</v>
+        <v>899</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="4"/>
@@ -7776,7 +7779,7 @@
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
       <c r="C5" s="46" t="s">
-        <v>851</v>
+        <v>898</v>
       </c>
       <c r="D5" s="38"/>
       <c r="F5" s="12"/>
@@ -8852,13 +8855,13 @@
         <v>45446</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="J37" s="25" t="s">
         <v>139</v>
@@ -8871,13 +8874,13 @@
         <v>139</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="O37" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P37" s="25" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="26"/>
@@ -9144,13 +9147,13 @@
         <v>45446</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="J45" s="25" t="s">
         <v>139</v>
@@ -9163,13 +9166,13 @@
         <v>139</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="O45" s="25" t="s">
         <v>139</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="26"/>
@@ -9453,11 +9456,11 @@
         <v>139</v>
       </c>
       <c r="N53" s="25" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="O53" s="25"/>
       <c r="P53" s="25" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="Q53" s="25"/>
       <c r="R53" s="26" t="s">
@@ -13677,16 +13680,16 @@
         <v>384</v>
       </c>
       <c r="F177" s="23">
-        <v>45439</v>
+        <v>45450</v>
       </c>
       <c r="G177" s="24" t="s">
-        <v>853</v>
+        <v>901</v>
       </c>
       <c r="H177" s="24" t="s">
-        <v>854</v>
+        <v>902</v>
       </c>
       <c r="I177" s="24" t="s">
-        <v>855</v>
+        <v>903</v>
       </c>
       <c r="J177" s="25" t="s">
         <v>139</v>
@@ -13721,16 +13724,16 @@
         <v>386</v>
       </c>
       <c r="F178" s="23">
-        <v>45439</v>
+        <v>45450</v>
       </c>
       <c r="G178" s="24" t="s">
-        <v>856</v>
+        <v>904</v>
       </c>
       <c r="H178" s="24" t="s">
-        <v>857</v>
+        <v>905</v>
       </c>
       <c r="I178" s="24" t="s">
-        <v>858</v>
+        <v>906</v>
       </c>
       <c r="J178" s="25" t="s">
         <v>139</v>
@@ -13765,16 +13768,16 @@
         <v>388</v>
       </c>
       <c r="F179" s="23">
-        <v>45439</v>
+        <v>45450</v>
       </c>
       <c r="G179" s="24" t="s">
-        <v>859</v>
+        <v>907</v>
       </c>
       <c r="H179" s="24" t="s">
-        <v>860</v>
+        <v>908</v>
       </c>
       <c r="I179" s="24" t="s">
-        <v>861</v>
+        <v>909</v>
       </c>
       <c r="J179" s="25" t="s">
         <v>139</v>
@@ -13808,22 +13811,16 @@
       <c r="E180" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="F180" s="23">
-        <v>45440</v>
-      </c>
-      <c r="G180" s="24" t="s">
-        <v>862</v>
-      </c>
-      <c r="H180" s="24" t="s">
-        <v>863</v>
-      </c>
-      <c r="I180" s="24" t="s">
-        <v>864</v>
-      </c>
+      <c r="F180" s="23"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="24"/>
+      <c r="I180" s="24"/>
       <c r="J180" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="K180" s="25"/>
+        <v>848</v>
+      </c>
+      <c r="K180" s="25" t="s">
+        <v>900</v>
+      </c>
       <c r="L180" s="25"/>
       <c r="M180" s="25"/>
       <c r="N180" s="25"/>
@@ -13860,7 +13857,7 @@
         <v>848</v>
       </c>
       <c r="K181" s="25" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="L181" s="25"/>
       <c r="M181" s="25"/>
@@ -13898,7 +13895,7 @@
         <v>848</v>
       </c>
       <c r="K182" s="25" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="L182" s="25"/>
       <c r="M182" s="25"/>
@@ -13936,7 +13933,7 @@
         <v>848</v>
       </c>
       <c r="K183" s="25" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="L183" s="25"/>
       <c r="M183" s="25"/>
@@ -13970,13 +13967,13 @@
         <v>45440</v>
       </c>
       <c r="G184" s="24" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="H184" s="24" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="J184" s="25" t="s">
         <v>139</v>
@@ -13989,13 +13986,13 @@
         <v>139</v>
       </c>
       <c r="N184" s="25" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="O184" s="25" t="s">
         <v>848</v>
       </c>
       <c r="P184" s="25" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="Q184" s="25"/>
       <c r="R184" s="26"/>
@@ -14024,13 +14021,13 @@
         <v>45441</v>
       </c>
       <c r="G185" s="24" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="H185" s="24" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="I185" s="24" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="J185" s="25" t="s">
         <v>139</v>
@@ -14043,13 +14040,13 @@
         <v>139</v>
       </c>
       <c r="N185" s="25" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="O185" s="25" t="s">
         <v>848</v>
       </c>
       <c r="P185" s="25" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="Q185" s="25"/>
       <c r="R185" s="26"/>
@@ -14082,7 +14079,7 @@
         <v>848</v>
       </c>
       <c r="K186" s="25" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="L186" s="25"/>
       <c r="M186" s="25"/>
@@ -14120,7 +14117,7 @@
         <v>848</v>
       </c>
       <c r="K187" s="25" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="L187" s="25"/>
       <c r="M187" s="25"/>
@@ -14158,7 +14155,7 @@
         <v>848</v>
       </c>
       <c r="K188" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L188" s="25"/>
       <c r="M188" s="25"/>
@@ -14196,7 +14193,7 @@
         <v>848</v>
       </c>
       <c r="K189" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L189" s="25"/>
       <c r="M189" s="25"/>
@@ -14234,7 +14231,7 @@
         <v>848</v>
       </c>
       <c r="K190" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L190" s="25"/>
       <c r="M190" s="25"/>
@@ -14268,13 +14265,13 @@
         <v>45440</v>
       </c>
       <c r="G191" s="24" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="H191" s="24" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="I191" s="24" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="J191" s="25" t="s">
         <v>139</v>
@@ -14287,13 +14284,13 @@
         <v>139</v>
       </c>
       <c r="N191" s="25" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="O191" s="25" t="s">
         <v>848</v>
       </c>
       <c r="P191" s="25" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="Q191" s="25"/>
       <c r="R191" s="26"/>
@@ -14326,7 +14323,7 @@
         <v>848</v>
       </c>
       <c r="K192" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L192" s="25"/>
       <c r="M192" s="25"/>
@@ -14364,7 +14361,7 @@
         <v>848</v>
       </c>
       <c r="K193" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L193" s="25"/>
       <c r="M193" s="25"/>
@@ -14402,7 +14399,7 @@
         <v>848</v>
       </c>
       <c r="K194" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L194" s="25"/>
       <c r="M194" s="25"/>
@@ -14440,7 +14437,7 @@
         <v>848</v>
       </c>
       <c r="K195" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L195" s="25"/>
       <c r="M195" s="25"/>
@@ -14478,7 +14475,7 @@
         <v>848</v>
       </c>
       <c r="K196" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L196" s="25"/>
       <c r="M196" s="25"/>
@@ -14516,7 +14513,7 @@
         <v>848</v>
       </c>
       <c r="K197" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L197" s="25"/>
       <c r="M197" s="25"/>
@@ -18392,13 +18389,13 @@
         <v>45439</v>
       </c>
       <c r="G311" s="24" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="H311" s="24" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="I311" s="24" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="J311" s="25" t="s">
         <v>139</v>
@@ -18436,13 +18433,13 @@
         <v>45441</v>
       </c>
       <c r="G312" s="24" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="H312" s="24" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="I312" s="24" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="J312" s="25" t="s">
         <v>139</v>
@@ -18480,13 +18477,13 @@
         <v>45441</v>
       </c>
       <c r="G313" s="24" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="H313" s="24" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="I313" s="24" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="J313" s="25" t="s">
         <v>139</v>
@@ -18524,13 +18521,13 @@
         <v>45441</v>
       </c>
       <c r="G314" s="24" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="H314" s="24" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="I314" s="24" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="J314" s="25" t="s">
         <v>139</v>
@@ -18568,13 +18565,13 @@
         <v>45441</v>
       </c>
       <c r="G315" s="24" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="H315" s="24" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="I315" s="24" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="J315" s="25" t="s">
         <v>139</v>
@@ -18612,13 +18609,13 @@
         <v>45439</v>
       </c>
       <c r="G316" s="24" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="H316" s="24" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="I316" s="24" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="J316" s="25" t="s">
         <v>139</v>
@@ -18656,13 +18653,13 @@
         <v>45439</v>
       </c>
       <c r="G317" s="24" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="H317" s="24" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="I317" s="24" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="J317" s="25" t="s">
         <v>139</v>
@@ -18700,13 +18697,13 @@
         <v>45440</v>
       </c>
       <c r="G318" s="24" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="H318" s="24" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="I318" s="24" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="J318" s="25" t="s">
         <v>139</v>
@@ -18918,7 +18915,7 @@
         <v>848</v>
       </c>
       <c r="K324" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L324" s="25"/>
       <c r="M324" s="25"/>
@@ -19976,7 +19973,7 @@
         <v>848</v>
       </c>
       <c r="K355" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L355" s="25"/>
       <c r="M355" s="25"/>
@@ -20082,7 +20079,7 @@
         <v>848</v>
       </c>
       <c r="K358" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L358" s="25"/>
       <c r="M358" s="25"/>
@@ -20596,7 +20593,7 @@
         <v>848</v>
       </c>
       <c r="K373" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L373" s="25"/>
       <c r="M373" s="25"/>
@@ -20634,7 +20631,7 @@
         <v>848</v>
       </c>
       <c r="K374" s="25" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L374" s="25"/>
       <c r="M374" s="25"/>
@@ -20906,13 +20903,13 @@
         <v>45439</v>
       </c>
       <c r="G382" s="33" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="H382" s="34" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="I382" s="34" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="J382" s="25" t="s">
         <v>139</v>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DCB06D-D09E-41BF-B010-3B1EAACC5836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEAAEB3-2D03-43E7-B870-A821711E7CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21720" windowHeight="10668" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="2595" windowWidth="20160" windowHeight="9615" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4731,31 +4731,31 @@
     <t>L'applicazione gestisce tutte le parti obbligatorie e in parte quelle opzionali</t>
   </si>
   <si>
-    <t>2024-06-07T15:07:34Z</t>
-  </si>
-  <si>
-    <t>3ec958b83713df1b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.42f0a8d6b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-06-07T15:28:56Z</t>
-  </si>
-  <si>
-    <t>3616b6c7ca3333fc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.e8e71a0aee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-06-07T15:35:59Z</t>
-  </si>
-  <si>
-    <t>9a697807a495ad4c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.30302dacd1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>15597aa19ef9750e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.67bbddf3bd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-21T07:02:34Z</t>
+  </si>
+  <si>
+    <t>2024-06-21T07:07:51Z</t>
+  </si>
+  <si>
+    <t>fb19883695f86cd9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.3d2515969c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-21T07:12:43Z</t>
+  </si>
+  <si>
+    <t>b65e64f23e135682</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.f181f683e2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5500,10 +5500,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="130.109375" customWidth="1"/>
-    <col min="2" max="26" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="130.140625" customWidth="1"/>
+    <col min="2" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
@@ -6564,11 +6564,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="194.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="194.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -6640,7 +6640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43.2">
+    <row r="11" spans="1:2" ht="45">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -7666,23 +7666,23 @@
       <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G179" sqref="G179"/>
+      <selection pane="bottomRight" activeCell="I179" sqref="I179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
-    <col min="5" max="5" width="104.88671875" customWidth="1"/>
-    <col min="6" max="9" width="33.109375" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
-    <col min="11" max="15" width="36.44140625" customWidth="1"/>
-    <col min="16" max="16" width="27.109375" customWidth="1"/>
-    <col min="17" max="17" width="33.109375" customWidth="1"/>
-    <col min="18" max="18" width="36.44140625" customWidth="1"/>
-    <col min="19" max="20" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="5" max="5" width="104.85546875" customWidth="1"/>
+    <col min="6" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="11" max="15" width="36.42578125" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" customWidth="1"/>
+    <col min="19" max="20" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -13680,16 +13680,16 @@
         <v>384</v>
       </c>
       <c r="F177" s="23">
-        <v>45450</v>
+        <v>45464</v>
       </c>
       <c r="G177" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="H177" s="24" t="s">
         <v>901</v>
       </c>
-      <c r="H177" s="24" t="s">
+      <c r="I177" s="24" t="s">
         <v>902</v>
-      </c>
-      <c r="I177" s="24" t="s">
-        <v>903</v>
       </c>
       <c r="J177" s="25" t="s">
         <v>139</v>
@@ -13724,7 +13724,7 @@
         <v>386</v>
       </c>
       <c r="F178" s="23">
-        <v>45450</v>
+        <v>45464</v>
       </c>
       <c r="G178" s="24" t="s">
         <v>904</v>
@@ -13768,7 +13768,7 @@
         <v>388</v>
       </c>
       <c r="F179" s="23">
-        <v>45450</v>
+        <v>45464</v>
       </c>
       <c r="G179" s="24" t="s">
         <v>907</v>
@@ -25662,13 +25662,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="102" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -25755,7 +25755,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.4">
+    <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
         <v>93</v>
       </c>
@@ -25769,7 +25769,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>112</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="11" t="s">
         <v>814</v>
       </c>
@@ -27333,11 +27333,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
